--- a/APositive.xlsx
+++ b/APositive.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Achu\WWW\Hridayasparsham\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D408DA2-338F-46B1-BCC9-1802E0865506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{604572CB-D042-4E05-A9C4-838FF6BE6F34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{504CD3D7-3C5E-42A8-B35F-975F1BB80D5F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="78">
   <si>
     <t>Sl No.</t>
   </si>
@@ -48,9 +48,6 @@
   </si>
   <si>
     <t>Phone Number</t>
-  </si>
-  <si>
-    <t>Email</t>
   </si>
   <si>
     <t>A +ve</t>
@@ -189,12 +186,105 @@
   <si>
     <t>Twinkle Andrew</t>
   </si>
+  <si>
+    <t>2019 MBBS</t>
+  </si>
+  <si>
+    <t>2020 MBBS</t>
+  </si>
+  <si>
+    <t>2023 MBBS</t>
+  </si>
+  <si>
+    <t>ABHITHA RAJESH</t>
+  </si>
+  <si>
+    <t>ADITYA MISHRA</t>
+  </si>
+  <si>
+    <t>AFRAH  S</t>
+  </si>
+  <si>
+    <t>ALEENA LAL</t>
+  </si>
+  <si>
+    <t>ALLEN FRANCIS</t>
+  </si>
+  <si>
+    <t>AMAL DAS C Y</t>
+  </si>
+  <si>
+    <t>ANN MARIA T J</t>
+  </si>
+  <si>
+    <t>ARAVIND G ASOK</t>
+  </si>
+  <si>
+    <t>ARYA ANU SANGEETHA</t>
+  </si>
+  <si>
+    <t>ASHKA SHEREEN S L</t>
+  </si>
+  <si>
+    <t>ERIC KOSHY</t>
+  </si>
+  <si>
+    <t>FATHIMA NASLA K</t>
+  </si>
+  <si>
+    <t>GEORGE STANLY MOHANAN</t>
+  </si>
+  <si>
+    <t>GOKULNATH V S</t>
+  </si>
+  <si>
+    <t>HARI GOVIND U</t>
+  </si>
+  <si>
+    <t>JOHN JOHNSON</t>
+  </si>
+  <si>
+    <t>MARINNA LALI THOMAS</t>
+  </si>
+  <si>
+    <t>NEHA ELIZABETH SIBI</t>
+  </si>
+  <si>
+    <t>NIRANJAN B</t>
+  </si>
+  <si>
+    <t>NIYA MARY</t>
+  </si>
+  <si>
+    <t>PRASHAN JOSE J</t>
+  </si>
+  <si>
+    <t>ROSHNI SUSAN GEORGE</t>
+  </si>
+  <si>
+    <t>SANDRA JAYESH</t>
+  </si>
+  <si>
+    <t>SANDRA ROSE BIJESH</t>
+  </si>
+  <si>
+    <t>SHIVAM VERMA</t>
+  </si>
+  <si>
+    <t>SREYA S ANAND</t>
+  </si>
+  <si>
+    <t>STELLA ACHU THOMAS</t>
+  </si>
+  <si>
+    <t>SUMIT SINGH</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -232,6 +322,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -241,7 +337,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -351,11 +447,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -405,8 +525,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -744,8 +876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38A89F49-A16D-44C4-953A-25A0144156A7}">
   <dimension ref="A1:F211"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B209" sqref="B209"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -755,7 +887,7 @@
     <col min="3" max="3" width="17.77734375" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.21875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.21875" style="19" customWidth="1"/>
     <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
@@ -770,2096 +902,2318 @@
         <v>3</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="13" t="s">
-        <v>4</v>
-      </c>
+      <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="11">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="8">
         <v>9497122137</v>
       </c>
-      <c r="D2" s="5">
-        <v>2019</v>
+      <c r="D2" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="11"/>
+        <v>4</v>
+      </c>
+      <c r="F2" s="18"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C3" s="8">
         <v>8281296951</v>
       </c>
-      <c r="D3" s="5">
-        <v>2019</v>
+      <c r="D3" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="11"/>
+        <v>4</v>
+      </c>
+      <c r="F3" s="18"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="11">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="8">
         <v>9656165971</v>
       </c>
-      <c r="D4" s="5">
-        <v>2019</v>
+      <c r="D4" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="11"/>
+        <v>4</v>
+      </c>
+      <c r="F4" s="18"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" s="8">
         <v>7356692019</v>
       </c>
-      <c r="D5" s="5">
-        <v>2019</v>
+      <c r="D5" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="11"/>
+        <v>4</v>
+      </c>
+      <c r="F5" s="18"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C6" s="8">
         <v>9605246675</v>
       </c>
-      <c r="D6" s="5">
-        <v>2019</v>
+      <c r="D6" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="11"/>
+        <v>4</v>
+      </c>
+      <c r="F6" s="18"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" s="8">
         <v>8592806620</v>
       </c>
-      <c r="D7" s="5">
-        <v>2019</v>
+      <c r="D7" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="11"/>
+        <v>4</v>
+      </c>
+      <c r="F7" s="18"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="11">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" s="8">
         <v>8943753445</v>
       </c>
-      <c r="D8" s="5">
-        <v>2019</v>
+      <c r="D8" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="11"/>
+        <v>4</v>
+      </c>
+      <c r="F8" s="18"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="11">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" s="8">
         <v>9605054543</v>
       </c>
-      <c r="D9" s="5">
-        <v>2019</v>
+      <c r="D9" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="11"/>
+        <v>4</v>
+      </c>
+      <c r="F9" s="18"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C10" s="8">
         <v>9497463989</v>
       </c>
-      <c r="D10" s="5">
-        <v>2019</v>
+      <c r="D10" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="11"/>
+        <v>4</v>
+      </c>
+      <c r="F10" s="18"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="11">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" s="8">
         <v>7561070649</v>
       </c>
-      <c r="D11" s="5">
-        <v>2019</v>
+      <c r="D11" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="11"/>
+        <v>4</v>
+      </c>
+      <c r="F11" s="18"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" s="8">
         <v>9645282552</v>
       </c>
-      <c r="D12" s="5">
-        <v>2019</v>
+      <c r="D12" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="11"/>
+        <v>4</v>
+      </c>
+      <c r="F12" s="18"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="11">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13" s="8">
         <v>8281684741</v>
       </c>
-      <c r="D13" s="5">
-        <v>2019</v>
+      <c r="D13" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" s="11"/>
+        <v>4</v>
+      </c>
+      <c r="F13" s="18"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14" s="8">
         <v>7994794968</v>
       </c>
-      <c r="D14" s="5">
-        <v>2019</v>
+      <c r="D14" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="11"/>
+        <v>4</v>
+      </c>
+      <c r="F14" s="18"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="11">
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15" s="8">
         <v>9544046514</v>
       </c>
-      <c r="D15" s="5">
-        <v>2019</v>
+      <c r="D15" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="11"/>
+        <v>4</v>
+      </c>
+      <c r="F15" s="18"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="11">
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C16" s="8">
         <v>8281577048</v>
       </c>
-      <c r="D16" s="5">
-        <v>2019</v>
+      <c r="D16" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F16" s="11"/>
+        <v>4</v>
+      </c>
+      <c r="F16" s="18"/>
     </row>
     <row r="17" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
         <v>16</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C17" s="8">
         <v>7510931026</v>
       </c>
-      <c r="D17" s="5">
-        <v>2019</v>
+      <c r="D17" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="11"/>
+        <v>4</v>
+      </c>
+      <c r="F17" s="18"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="11">
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C18" s="8">
         <v>9562456890</v>
       </c>
-      <c r="D18" s="5">
-        <v>2019</v>
+      <c r="D18" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" s="11"/>
+        <v>4</v>
+      </c>
+      <c r="F18" s="18"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="11">
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C19" s="8">
         <v>8078052189</v>
       </c>
-      <c r="D19" s="5">
-        <v>2019</v>
+      <c r="D19" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F19" s="11"/>
+        <v>4</v>
+      </c>
+      <c r="F19" s="18"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="11">
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C20" s="8">
         <v>7902201908</v>
       </c>
-      <c r="D20" s="5">
-        <v>2019</v>
+      <c r="D20" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="11"/>
+        <v>4</v>
+      </c>
+      <c r="F20" s="18"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="11">
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C21" s="8">
         <v>7025467843</v>
       </c>
-      <c r="D21" s="5">
-        <v>2019</v>
+      <c r="D21" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" s="11"/>
+        <v>4</v>
+      </c>
+      <c r="F21" s="18"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="11">
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C22" s="8">
         <v>9497284941</v>
       </c>
-      <c r="D22" s="5">
-        <v>2019</v>
+      <c r="D22" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" s="11"/>
+        <v>4</v>
+      </c>
+      <c r="F22" s="18"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="11">
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C23" s="8">
         <v>9074217058</v>
       </c>
-      <c r="D23" s="5">
-        <v>2019</v>
+      <c r="D23" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F23" s="11"/>
+        <v>4</v>
+      </c>
+      <c r="F23" s="18"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="11">
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C24" s="8">
         <v>8589852971</v>
       </c>
-      <c r="D24" s="5">
-        <v>2019</v>
+      <c r="D24" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F24" s="11"/>
+        <v>4</v>
+      </c>
+      <c r="F24" s="18"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="11">
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C25" s="8">
         <v>9447426822</v>
       </c>
-      <c r="D25" s="5">
-        <v>2019</v>
+      <c r="D25" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F25" s="11"/>
+        <v>4</v>
+      </c>
+      <c r="F25" s="18"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="15">
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C26" s="9">
         <v>7306179793</v>
       </c>
-      <c r="D26" s="5">
-        <v>2019</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="F26" s="15"/>
+      <c r="D26" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="18"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="11">
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C27" s="10">
         <v>9961423181</v>
       </c>
-      <c r="D27" s="5">
-        <v>2019</v>
+      <c r="D27" s="5" t="s">
+        <v>47</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F27" s="11"/>
+        <v>4</v>
+      </c>
+      <c r="F27" s="18"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="11">
         <v>27</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C28" s="11">
         <v>9447555454</v>
       </c>
-      <c r="D28" s="11">
-        <v>2020</v>
+      <c r="D28" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F28" s="11"/>
+        <v>4</v>
+      </c>
+      <c r="F28" s="18"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="11">
         <v>28</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C29" s="11">
         <v>9447274502</v>
       </c>
-      <c r="D29" s="11">
-        <v>2020</v>
+      <c r="D29" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="11"/>
+        <v>4</v>
+      </c>
+      <c r="F29" s="18"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="11">
         <v>29</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C30" s="11">
         <v>9715043450</v>
       </c>
-      <c r="D30" s="11">
-        <v>2020</v>
+      <c r="D30" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F30" s="11"/>
+        <v>4</v>
+      </c>
+      <c r="F30" s="18"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="11">
         <v>30</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C31" s="11">
         <v>8111983244</v>
       </c>
-      <c r="D31" s="11">
-        <v>2020</v>
+      <c r="D31" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F31" s="11"/>
+        <v>4</v>
+      </c>
+      <c r="F31" s="18"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="11">
         <v>31</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C32" s="11">
         <v>9496737222</v>
       </c>
-      <c r="D32" s="11">
-        <v>2020</v>
+      <c r="D32" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F32" s="11"/>
+        <v>4</v>
+      </c>
+      <c r="F32" s="18"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="11">
         <v>32</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C33" s="11">
         <v>9952861683</v>
       </c>
-      <c r="D33" s="11">
-        <v>2020</v>
+      <c r="D33" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F33" s="11"/>
+        <v>4</v>
+      </c>
+      <c r="F33" s="18"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="11">
         <v>33</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C34" s="11">
         <v>9249437529</v>
       </c>
-      <c r="D34" s="11">
-        <v>2020</v>
+      <c r="D34" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F34" s="11"/>
+        <v>4</v>
+      </c>
+      <c r="F34" s="18"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="11">
         <v>34</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C35" s="11">
         <v>9497340349</v>
       </c>
-      <c r="D35" s="11">
-        <v>2020</v>
+      <c r="D35" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F35" s="11"/>
+        <v>4</v>
+      </c>
+      <c r="F35" s="18"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="11">
         <v>35</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C36" s="11">
         <v>9447452243</v>
       </c>
-      <c r="D36" s="11">
-        <v>2020</v>
+      <c r="D36" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F36" s="11"/>
+        <v>4</v>
+      </c>
+      <c r="F36" s="18"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="11">
         <v>36</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C37" s="11">
         <v>9074757340</v>
       </c>
-      <c r="D37" s="11">
-        <v>2020</v>
+      <c r="D37" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F37" s="11"/>
+        <v>4</v>
+      </c>
+      <c r="F37" s="18"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="11">
         <v>37</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C38" s="11">
         <v>9744785033</v>
       </c>
-      <c r="D38" s="11">
-        <v>2020</v>
+      <c r="D38" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="E38" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F38" s="11"/>
+        <v>4</v>
+      </c>
+      <c r="F38" s="18"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="11">
         <v>38</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C39" s="11">
         <v>8157991366</v>
       </c>
-      <c r="D39" s="11">
-        <v>2020</v>
+      <c r="D39" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F39" s="11"/>
+        <v>4</v>
+      </c>
+      <c r="F39" s="18"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="11">
         <v>39</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C40" s="11">
         <v>9496792942</v>
       </c>
-      <c r="D40" s="11">
-        <v>2020</v>
+      <c r="D40" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="E40" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F40" s="11"/>
+        <v>4</v>
+      </c>
+      <c r="F40" s="18"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="11">
         <v>40</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C41" s="11">
         <v>9447705749</v>
       </c>
-      <c r="D41" s="11">
-        <v>2020</v>
+      <c r="D41" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F41" s="11"/>
+        <v>4</v>
+      </c>
+      <c r="F41" s="18"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="11">
         <v>41</v>
       </c>
-      <c r="B42" s="11" t="s">
-        <v>21</v>
+      <c r="B42" s="20" t="s">
+        <v>20</v>
       </c>
       <c r="C42" s="11">
         <v>9446617224</v>
       </c>
-      <c r="D42" s="11">
-        <v>2020</v>
+      <c r="D42" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F42" s="11"/>
+        <v>4</v>
+      </c>
+      <c r="F42" s="18"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" s="17"/>
-      <c r="B43" s="17"/>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
+      <c r="A43" s="11">
+        <v>42</v>
+      </c>
+      <c r="B43" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" s="18"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" s="17"/>
-      <c r="B44" s="17"/>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
+      <c r="A44" s="11">
+        <v>43</v>
+      </c>
+      <c r="B44" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" s="18"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="17"/>
-      <c r="B45" s="17"/>
-      <c r="C45" s="17"/>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="17"/>
+      <c r="A45" s="11">
+        <v>44</v>
+      </c>
+      <c r="B45" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" s="18"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="17"/>
-      <c r="B46" s="17"/>
-      <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
+      <c r="A46" s="11">
+        <v>45</v>
+      </c>
+      <c r="B46" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F46" s="18"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="17"/>
-      <c r="B47" s="17"/>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="17"/>
+      <c r="A47" s="11">
+        <v>46</v>
+      </c>
+      <c r="B47" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" s="18"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="17"/>
-      <c r="B48" s="17"/>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="17"/>
+      <c r="A48" s="11">
+        <v>47</v>
+      </c>
+      <c r="B48" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" s="18"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" s="17"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
+      <c r="A49" s="11">
+        <v>48</v>
+      </c>
+      <c r="B49" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" s="18"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" s="17"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
+      <c r="A50" s="11">
+        <v>49</v>
+      </c>
+      <c r="B50" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F50" s="18"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" s="17"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17"/>
-      <c r="F51" s="17"/>
+      <c r="A51" s="11">
+        <v>50</v>
+      </c>
+      <c r="B51" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F51" s="18"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="17"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="17"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17"/>
-      <c r="F52" s="17"/>
+      <c r="A52" s="11">
+        <v>51</v>
+      </c>
+      <c r="B52" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" s="18"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" s="17"/>
-      <c r="B53" s="17"/>
-      <c r="C53" s="17"/>
-      <c r="D53" s="17"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="17"/>
+      <c r="A53" s="11">
+        <v>52</v>
+      </c>
+      <c r="B53" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F53" s="18"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" s="17"/>
-      <c r="B54" s="17"/>
-      <c r="C54" s="17"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="17"/>
+      <c r="A54" s="11">
+        <v>53</v>
+      </c>
+      <c r="B54" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F54" s="18"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" s="17"/>
-      <c r="B55" s="17"/>
-      <c r="C55" s="17"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="17"/>
+      <c r="A55" s="11">
+        <v>54</v>
+      </c>
+      <c r="B55" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F55" s="18"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="17"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="17"/>
+      <c r="A56" s="11">
+        <v>55</v>
+      </c>
+      <c r="B56" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F56" s="18"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" s="17"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="17"/>
-      <c r="D57" s="17"/>
-      <c r="E57" s="17"/>
-      <c r="F57" s="17"/>
+      <c r="A57" s="11">
+        <v>56</v>
+      </c>
+      <c r="B57" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F57" s="18"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" s="17"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="17"/>
-      <c r="D58" s="17"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="17"/>
+      <c r="A58" s="11">
+        <v>57</v>
+      </c>
+      <c r="B58" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" s="18"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" s="17"/>
-      <c r="B59" s="17"/>
-      <c r="C59" s="17"/>
-      <c r="D59" s="17"/>
-      <c r="E59" s="17"/>
-      <c r="F59" s="17"/>
+      <c r="A59" s="11">
+        <v>58</v>
+      </c>
+      <c r="B59" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E59" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F59" s="18"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="17"/>
-      <c r="B60" s="17"/>
-      <c r="C60" s="17"/>
-      <c r="D60" s="17"/>
-      <c r="E60" s="17"/>
-      <c r="F60" s="17"/>
+      <c r="A60" s="11">
+        <v>59</v>
+      </c>
+      <c r="B60" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E60" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F60" s="18"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" s="17"/>
-      <c r="B61" s="17"/>
-      <c r="C61" s="17"/>
-      <c r="D61" s="17"/>
-      <c r="E61" s="17"/>
-      <c r="F61" s="17"/>
+      <c r="A61" s="11">
+        <v>60</v>
+      </c>
+      <c r="B61" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F61" s="18"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" s="17"/>
-      <c r="B62" s="17"/>
-      <c r="C62" s="17"/>
-      <c r="D62" s="17"/>
-      <c r="E62" s="17"/>
-      <c r="F62" s="17"/>
+      <c r="A62" s="11">
+        <v>61</v>
+      </c>
+      <c r="B62" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62" s="18"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" s="17"/>
-      <c r="B63" s="17"/>
-      <c r="C63" s="17"/>
-      <c r="D63" s="17"/>
-      <c r="E63" s="17"/>
-      <c r="F63" s="17"/>
+      <c r="A63" s="11">
+        <v>62</v>
+      </c>
+      <c r="B63" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F63" s="18"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" s="17"/>
-      <c r="B64" s="17"/>
-      <c r="C64" s="17"/>
-      <c r="D64" s="17"/>
-      <c r="E64" s="17"/>
-      <c r="F64" s="17"/>
+      <c r="A64" s="11">
+        <v>63</v>
+      </c>
+      <c r="B64" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E64" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F64" s="18"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" s="17"/>
-      <c r="B65" s="17"/>
-      <c r="C65" s="17"/>
-      <c r="D65" s="17"/>
-      <c r="E65" s="17"/>
-      <c r="F65" s="17"/>
+      <c r="A65" s="11">
+        <v>64</v>
+      </c>
+      <c r="B65" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E65" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F65" s="18"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" s="17"/>
-      <c r="B66" s="17"/>
-      <c r="C66" s="17"/>
-      <c r="D66" s="17"/>
-      <c r="E66" s="17"/>
-      <c r="F66" s="17"/>
+      <c r="A66" s="11">
+        <v>65</v>
+      </c>
+      <c r="B66" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E66" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F66" s="18"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" s="17"/>
-      <c r="B67" s="17"/>
-      <c r="C67" s="17"/>
-      <c r="D67" s="17"/>
-      <c r="E67" s="17"/>
-      <c r="F67" s="17"/>
+      <c r="A67" s="11">
+        <v>66</v>
+      </c>
+      <c r="B67" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E67" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F67" s="18"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" s="17"/>
-      <c r="B68" s="17"/>
-      <c r="C68" s="17"/>
-      <c r="D68" s="17"/>
-      <c r="E68" s="17"/>
-      <c r="F68" s="17"/>
+      <c r="A68" s="11">
+        <v>67</v>
+      </c>
+      <c r="B68" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E68" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F68" s="18"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" s="17"/>
-      <c r="B69" s="17"/>
-      <c r="C69" s="17"/>
-      <c r="D69" s="17"/>
-      <c r="E69" s="17"/>
-      <c r="F69" s="17"/>
+      <c r="A69" s="11">
+        <v>68</v>
+      </c>
+      <c r="B69" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E69" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F69" s="18"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" s="17"/>
-      <c r="B70" s="17"/>
-      <c r="C70" s="17"/>
-      <c r="D70" s="17"/>
-      <c r="E70" s="17"/>
-      <c r="F70" s="17"/>
+      <c r="A70" s="11">
+        <v>69</v>
+      </c>
+      <c r="B70" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E70" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F70" s="18"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" s="17"/>
-      <c r="B71" s="17"/>
-      <c r="C71" s="17"/>
-      <c r="D71" s="17"/>
-      <c r="E71" s="17"/>
-      <c r="F71" s="17"/>
+      <c r="A71" s="16"/>
+      <c r="B71" s="16"/>
+      <c r="C71" s="16"/>
+      <c r="D71" s="16"/>
+      <c r="E71" s="16"/>
+      <c r="F71" s="18"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" s="17"/>
-      <c r="B72" s="17"/>
-      <c r="C72" s="17"/>
-      <c r="D72" s="17"/>
-      <c r="E72" s="17"/>
-      <c r="F72" s="17"/>
+      <c r="A72" s="16"/>
+      <c r="B72" s="16"/>
+      <c r="C72" s="16"/>
+      <c r="D72" s="16"/>
+      <c r="E72" s="16"/>
+      <c r="F72" s="18"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" s="17"/>
-      <c r="B73" s="17"/>
-      <c r="C73" s="17"/>
-      <c r="D73" s="17"/>
-      <c r="E73" s="17"/>
-      <c r="F73" s="17"/>
+      <c r="A73" s="16"/>
+      <c r="B73" s="16"/>
+      <c r="C73" s="16"/>
+      <c r="D73" s="16"/>
+      <c r="E73" s="16"/>
+      <c r="F73" s="18"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" s="17"/>
-      <c r="B74" s="17"/>
-      <c r="C74" s="17"/>
-      <c r="D74" s="17"/>
-      <c r="E74" s="17"/>
-      <c r="F74" s="17"/>
+      <c r="A74" s="16"/>
+      <c r="B74" s="16"/>
+      <c r="C74" s="16"/>
+      <c r="D74" s="16"/>
+      <c r="E74" s="16"/>
+      <c r="F74" s="18"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" s="17"/>
-      <c r="B75" s="17"/>
-      <c r="C75" s="17"/>
-      <c r="D75" s="17"/>
-      <c r="E75" s="17"/>
-      <c r="F75" s="17"/>
+      <c r="A75" s="16"/>
+      <c r="B75" s="16"/>
+      <c r="C75" s="16"/>
+      <c r="D75" s="16"/>
+      <c r="E75" s="16"/>
+      <c r="F75" s="18"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76" s="17"/>
-      <c r="B76" s="17"/>
-      <c r="C76" s="17"/>
-      <c r="D76" s="17"/>
-      <c r="E76" s="17"/>
-      <c r="F76" s="17"/>
+      <c r="A76" s="16"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="16"/>
+      <c r="D76" s="16"/>
+      <c r="E76" s="16"/>
+      <c r="F76" s="18"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77" s="17"/>
-      <c r="B77" s="17"/>
-      <c r="C77" s="17"/>
-      <c r="D77" s="17"/>
-      <c r="E77" s="17"/>
-      <c r="F77" s="17"/>
+      <c r="A77" s="16"/>
+      <c r="B77" s="16"/>
+      <c r="C77" s="16"/>
+      <c r="D77" s="16"/>
+      <c r="E77" s="16"/>
+      <c r="F77" s="18"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" s="17"/>
-      <c r="B78" s="17"/>
-      <c r="C78" s="17"/>
-      <c r="D78" s="17"/>
-      <c r="E78" s="17"/>
-      <c r="F78" s="17"/>
+      <c r="A78" s="16"/>
+      <c r="B78" s="16"/>
+      <c r="C78" s="16"/>
+      <c r="D78" s="16"/>
+      <c r="E78" s="16"/>
+      <c r="F78" s="18"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" s="17"/>
-      <c r="B79" s="17"/>
-      <c r="C79" s="17"/>
-      <c r="D79" s="17"/>
-      <c r="E79" s="17"/>
-      <c r="F79" s="17"/>
+      <c r="A79" s="16"/>
+      <c r="B79" s="16"/>
+      <c r="C79" s="16"/>
+      <c r="D79" s="16"/>
+      <c r="E79" s="16"/>
+      <c r="F79" s="18"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80" s="17"/>
-      <c r="B80" s="17"/>
-      <c r="C80" s="17"/>
-      <c r="D80" s="17"/>
-      <c r="E80" s="17"/>
-      <c r="F80" s="17"/>
+      <c r="A80" s="16"/>
+      <c r="B80" s="16"/>
+      <c r="C80" s="16"/>
+      <c r="D80" s="16"/>
+      <c r="E80" s="16"/>
+      <c r="F80" s="18"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A81" s="17"/>
-      <c r="B81" s="17"/>
-      <c r="C81" s="17"/>
-      <c r="D81" s="17"/>
-      <c r="E81" s="17"/>
-      <c r="F81" s="17"/>
+      <c r="A81" s="16"/>
+      <c r="B81" s="16"/>
+      <c r="C81" s="16"/>
+      <c r="D81" s="16"/>
+      <c r="E81" s="16"/>
+      <c r="F81" s="18"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="17"/>
-      <c r="B82" s="17"/>
-      <c r="C82" s="17"/>
-      <c r="D82" s="17"/>
-      <c r="E82" s="17"/>
-      <c r="F82" s="17"/>
+      <c r="A82" s="16"/>
+      <c r="B82" s="16"/>
+      <c r="C82" s="16"/>
+      <c r="D82" s="16"/>
+      <c r="E82" s="16"/>
+      <c r="F82" s="18"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A83" s="17"/>
-      <c r="B83" s="17"/>
-      <c r="C83" s="17"/>
-      <c r="D83" s="17"/>
-      <c r="E83" s="17"/>
-      <c r="F83" s="17"/>
+      <c r="A83" s="16"/>
+      <c r="B83" s="16"/>
+      <c r="C83" s="16"/>
+      <c r="D83" s="16"/>
+      <c r="E83" s="16"/>
+      <c r="F83" s="18"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A84" s="17"/>
-      <c r="B84" s="17"/>
-      <c r="C84" s="17"/>
-      <c r="D84" s="17"/>
-      <c r="E84" s="17"/>
-      <c r="F84" s="17"/>
+      <c r="A84" s="16"/>
+      <c r="B84" s="16"/>
+      <c r="C84" s="16"/>
+      <c r="D84" s="16"/>
+      <c r="E84" s="16"/>
+      <c r="F84" s="18"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A85" s="17"/>
-      <c r="B85" s="17"/>
-      <c r="C85" s="17"/>
-      <c r="D85" s="17"/>
-      <c r="E85" s="17"/>
-      <c r="F85" s="17"/>
+      <c r="A85" s="16"/>
+      <c r="B85" s="16"/>
+      <c r="C85" s="16"/>
+      <c r="D85" s="16"/>
+      <c r="E85" s="16"/>
+      <c r="F85" s="18"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A86" s="17"/>
-      <c r="B86" s="17"/>
-      <c r="C86" s="17"/>
-      <c r="D86" s="17"/>
-      <c r="E86" s="17"/>
-      <c r="F86" s="17"/>
+      <c r="A86" s="16"/>
+      <c r="B86" s="16"/>
+      <c r="C86" s="16"/>
+      <c r="D86" s="16"/>
+      <c r="E86" s="16"/>
+      <c r="F86" s="18"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A87" s="17"/>
-      <c r="B87" s="17"/>
-      <c r="C87" s="17"/>
-      <c r="D87" s="17"/>
-      <c r="E87" s="17"/>
-      <c r="F87" s="17"/>
+      <c r="A87" s="16"/>
+      <c r="B87" s="16"/>
+      <c r="C87" s="16"/>
+      <c r="D87" s="16"/>
+      <c r="E87" s="16"/>
+      <c r="F87" s="18"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A88" s="17"/>
-      <c r="B88" s="17"/>
-      <c r="C88" s="17"/>
-      <c r="D88" s="17"/>
-      <c r="E88" s="17"/>
-      <c r="F88" s="17"/>
+      <c r="A88" s="16"/>
+      <c r="B88" s="16"/>
+      <c r="C88" s="16"/>
+      <c r="D88" s="16"/>
+      <c r="E88" s="16"/>
+      <c r="F88" s="18"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A89" s="17"/>
-      <c r="B89" s="17"/>
-      <c r="C89" s="17"/>
-      <c r="D89" s="17"/>
-      <c r="E89" s="17"/>
-      <c r="F89" s="17"/>
+      <c r="A89" s="16"/>
+      <c r="B89" s="16"/>
+      <c r="C89" s="16"/>
+      <c r="D89" s="16"/>
+      <c r="E89" s="16"/>
+      <c r="F89" s="18"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90" s="17"/>
-      <c r="B90" s="17"/>
-      <c r="C90" s="17"/>
-      <c r="D90" s="17"/>
-      <c r="E90" s="17"/>
-      <c r="F90" s="17"/>
+      <c r="A90" s="16"/>
+      <c r="B90" s="16"/>
+      <c r="C90" s="16"/>
+      <c r="D90" s="16"/>
+      <c r="E90" s="16"/>
+      <c r="F90" s="18"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="17"/>
-      <c r="B91" s="17"/>
-      <c r="C91" s="17"/>
-      <c r="D91" s="17"/>
-      <c r="E91" s="17"/>
-      <c r="F91" s="17"/>
+      <c r="A91" s="16"/>
+      <c r="B91" s="16"/>
+      <c r="C91" s="16"/>
+      <c r="D91" s="16"/>
+      <c r="E91" s="16"/>
+      <c r="F91" s="18"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A92" s="17"/>
-      <c r="B92" s="17"/>
-      <c r="C92" s="17"/>
-      <c r="D92" s="17"/>
-      <c r="E92" s="17"/>
-      <c r="F92" s="17"/>
+      <c r="A92" s="16"/>
+      <c r="B92" s="16"/>
+      <c r="C92" s="16"/>
+      <c r="D92" s="16"/>
+      <c r="E92" s="16"/>
+      <c r="F92" s="18"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A93" s="17"/>
-      <c r="B93" s="17"/>
-      <c r="C93" s="17"/>
-      <c r="D93" s="17"/>
-      <c r="E93" s="17"/>
-      <c r="F93" s="17"/>
+      <c r="A93" s="16"/>
+      <c r="B93" s="16"/>
+      <c r="C93" s="16"/>
+      <c r="D93" s="16"/>
+      <c r="E93" s="16"/>
+      <c r="F93" s="18"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A94" s="17"/>
-      <c r="B94" s="17"/>
-      <c r="C94" s="17"/>
-      <c r="D94" s="17"/>
-      <c r="E94" s="17"/>
-      <c r="F94" s="17"/>
+      <c r="A94" s="16"/>
+      <c r="B94" s="16"/>
+      <c r="C94" s="16"/>
+      <c r="D94" s="16"/>
+      <c r="E94" s="16"/>
+      <c r="F94" s="18"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A95" s="17"/>
-      <c r="B95" s="17"/>
-      <c r="C95" s="17"/>
-      <c r="D95" s="17"/>
-      <c r="E95" s="17"/>
-      <c r="F95" s="17"/>
+      <c r="A95" s="16"/>
+      <c r="B95" s="16"/>
+      <c r="C95" s="16"/>
+      <c r="D95" s="16"/>
+      <c r="E95" s="16"/>
+      <c r="F95" s="18"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A96" s="17"/>
-      <c r="B96" s="17"/>
-      <c r="C96" s="17"/>
-      <c r="D96" s="17"/>
-      <c r="E96" s="17"/>
-      <c r="F96" s="17"/>
+      <c r="A96" s="16"/>
+      <c r="B96" s="16"/>
+      <c r="C96" s="16"/>
+      <c r="D96" s="16"/>
+      <c r="E96" s="16"/>
+      <c r="F96" s="18"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A97" s="17"/>
-      <c r="B97" s="17"/>
-      <c r="C97" s="17"/>
-      <c r="D97" s="17"/>
-      <c r="E97" s="17"/>
-      <c r="F97" s="17"/>
+      <c r="A97" s="16"/>
+      <c r="B97" s="16"/>
+      <c r="C97" s="16"/>
+      <c r="D97" s="16"/>
+      <c r="E97" s="16"/>
+      <c r="F97" s="18"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A98" s="17"/>
-      <c r="B98" s="17"/>
-      <c r="C98" s="17"/>
-      <c r="D98" s="17"/>
-      <c r="E98" s="17"/>
-      <c r="F98" s="17"/>
+      <c r="A98" s="16"/>
+      <c r="B98" s="16"/>
+      <c r="C98" s="16"/>
+      <c r="D98" s="16"/>
+      <c r="E98" s="16"/>
+      <c r="F98" s="18"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A99" s="17"/>
-      <c r="B99" s="17"/>
-      <c r="C99" s="17"/>
-      <c r="D99" s="17"/>
-      <c r="E99" s="17"/>
-      <c r="F99" s="17"/>
+      <c r="A99" s="16"/>
+      <c r="B99" s="16"/>
+      <c r="C99" s="16"/>
+      <c r="D99" s="16"/>
+      <c r="E99" s="16"/>
+      <c r="F99" s="18"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A100" s="17"/>
-      <c r="B100" s="17"/>
-      <c r="C100" s="17"/>
-      <c r="D100" s="17"/>
-      <c r="E100" s="17"/>
-      <c r="F100" s="17"/>
+      <c r="A100" s="16"/>
+      <c r="B100" s="16"/>
+      <c r="C100" s="16"/>
+      <c r="D100" s="16"/>
+      <c r="E100" s="16"/>
+      <c r="F100" s="18"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A101" s="17"/>
-      <c r="B101" s="17"/>
-      <c r="C101" s="17"/>
-      <c r="D101" s="17"/>
-      <c r="E101" s="17"/>
-      <c r="F101" s="17"/>
+      <c r="A101" s="16"/>
+      <c r="B101" s="16"/>
+      <c r="C101" s="16"/>
+      <c r="D101" s="16"/>
+      <c r="E101" s="16"/>
+      <c r="F101" s="18"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102" s="17"/>
-      <c r="B102" s="17"/>
-      <c r="C102" s="17"/>
-      <c r="D102" s="17"/>
-      <c r="E102" s="17"/>
-      <c r="F102" s="17"/>
+      <c r="A102" s="16"/>
+      <c r="B102" s="16"/>
+      <c r="C102" s="16"/>
+      <c r="D102" s="16"/>
+      <c r="E102" s="16"/>
+      <c r="F102" s="18"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A103" s="17"/>
-      <c r="B103" s="17"/>
-      <c r="C103" s="17"/>
-      <c r="D103" s="17"/>
-      <c r="E103" s="17"/>
-      <c r="F103" s="17"/>
+      <c r="A103" s="16"/>
+      <c r="B103" s="16"/>
+      <c r="C103" s="16"/>
+      <c r="D103" s="16"/>
+      <c r="E103" s="16"/>
+      <c r="F103" s="18"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A104" s="17"/>
-      <c r="B104" s="17"/>
-      <c r="C104" s="17"/>
-      <c r="D104" s="17"/>
-      <c r="E104" s="17"/>
-      <c r="F104" s="17"/>
+      <c r="A104" s="16"/>
+      <c r="B104" s="16"/>
+      <c r="C104" s="16"/>
+      <c r="D104" s="16"/>
+      <c r="E104" s="16"/>
+      <c r="F104" s="18"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A105" s="17"/>
-      <c r="B105" s="17"/>
-      <c r="C105" s="17"/>
-      <c r="D105" s="17"/>
-      <c r="E105" s="17"/>
-      <c r="F105" s="17"/>
+      <c r="A105" s="16"/>
+      <c r="B105" s="16"/>
+      <c r="C105" s="16"/>
+      <c r="D105" s="16"/>
+      <c r="E105" s="16"/>
+      <c r="F105" s="18"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A106" s="17"/>
-      <c r="B106" s="17"/>
-      <c r="C106" s="17"/>
-      <c r="D106" s="17"/>
-      <c r="E106" s="17"/>
-      <c r="F106" s="17"/>
+      <c r="A106" s="16"/>
+      <c r="B106" s="16"/>
+      <c r="C106" s="16"/>
+      <c r="D106" s="16"/>
+      <c r="E106" s="16"/>
+      <c r="F106" s="18"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A107" s="17"/>
-      <c r="B107" s="17"/>
-      <c r="C107" s="17"/>
-      <c r="D107" s="17"/>
-      <c r="E107" s="17"/>
-      <c r="F107" s="17"/>
+      <c r="A107" s="16"/>
+      <c r="B107" s="16"/>
+      <c r="C107" s="16"/>
+      <c r="D107" s="16"/>
+      <c r="E107" s="16"/>
+      <c r="F107" s="18"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A108" s="17"/>
-      <c r="B108" s="17"/>
-      <c r="C108" s="17"/>
-      <c r="D108" s="17"/>
-      <c r="E108" s="17"/>
-      <c r="F108" s="17"/>
+      <c r="A108" s="16"/>
+      <c r="B108" s="16"/>
+      <c r="C108" s="16"/>
+      <c r="D108" s="16"/>
+      <c r="E108" s="16"/>
+      <c r="F108" s="18"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A109" s="17"/>
-      <c r="B109" s="17"/>
-      <c r="C109" s="17"/>
-      <c r="D109" s="17"/>
-      <c r="E109" s="17"/>
-      <c r="F109" s="17"/>
+      <c r="A109" s="16"/>
+      <c r="B109" s="16"/>
+      <c r="C109" s="16"/>
+      <c r="D109" s="16"/>
+      <c r="E109" s="16"/>
+      <c r="F109" s="18"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A110" s="17"/>
-      <c r="B110" s="17"/>
-      <c r="C110" s="17"/>
-      <c r="D110" s="17"/>
-      <c r="E110" s="17"/>
-      <c r="F110" s="17"/>
+      <c r="A110" s="16"/>
+      <c r="B110" s="16"/>
+      <c r="C110" s="16"/>
+      <c r="D110" s="16"/>
+      <c r="E110" s="16"/>
+      <c r="F110" s="18"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A111" s="17"/>
-      <c r="B111" s="17"/>
-      <c r="C111" s="17"/>
-      <c r="D111" s="17"/>
-      <c r="E111" s="17"/>
-      <c r="F111" s="17"/>
+      <c r="A111" s="16"/>
+      <c r="B111" s="16"/>
+      <c r="C111" s="16"/>
+      <c r="D111" s="16"/>
+      <c r="E111" s="16"/>
+      <c r="F111" s="18"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A112" s="17"/>
-      <c r="B112" s="17"/>
-      <c r="C112" s="17"/>
-      <c r="D112" s="17"/>
-      <c r="E112" s="17"/>
-      <c r="F112" s="17"/>
+      <c r="A112" s="16"/>
+      <c r="B112" s="16"/>
+      <c r="C112" s="16"/>
+      <c r="D112" s="16"/>
+      <c r="E112" s="16"/>
+      <c r="F112" s="18"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A113" s="17"/>
-      <c r="B113" s="17"/>
-      <c r="C113" s="17"/>
-      <c r="D113" s="17"/>
-      <c r="E113" s="17"/>
-      <c r="F113" s="17"/>
+      <c r="A113" s="16"/>
+      <c r="B113" s="16"/>
+      <c r="C113" s="16"/>
+      <c r="D113" s="16"/>
+      <c r="E113" s="16"/>
+      <c r="F113" s="18"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A114" s="17"/>
-      <c r="B114" s="17"/>
-      <c r="C114" s="17"/>
-      <c r="D114" s="17"/>
-      <c r="E114" s="17"/>
-      <c r="F114" s="17"/>
+      <c r="A114" s="16"/>
+      <c r="B114" s="16"/>
+      <c r="C114" s="16"/>
+      <c r="D114" s="16"/>
+      <c r="E114" s="16"/>
+      <c r="F114" s="18"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A115" s="17"/>
-      <c r="B115" s="17"/>
-      <c r="C115" s="17"/>
-      <c r="D115" s="17"/>
-      <c r="E115" s="17"/>
-      <c r="F115" s="17"/>
+      <c r="A115" s="16"/>
+      <c r="B115" s="16"/>
+      <c r="C115" s="16"/>
+      <c r="D115" s="16"/>
+      <c r="E115" s="16"/>
+      <c r="F115" s="18"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A116" s="17"/>
-      <c r="B116" s="17"/>
-      <c r="C116" s="17"/>
-      <c r="D116" s="17"/>
-      <c r="E116" s="17"/>
-      <c r="F116" s="17"/>
+      <c r="A116" s="16"/>
+      <c r="B116" s="16"/>
+      <c r="C116" s="16"/>
+      <c r="D116" s="16"/>
+      <c r="E116" s="16"/>
+      <c r="F116" s="18"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A117" s="17"/>
-      <c r="B117" s="17"/>
-      <c r="C117" s="17"/>
-      <c r="D117" s="17"/>
-      <c r="E117" s="17"/>
-      <c r="F117" s="17"/>
+      <c r="A117" s="16"/>
+      <c r="B117" s="16"/>
+      <c r="C117" s="16"/>
+      <c r="D117" s="16"/>
+      <c r="E117" s="16"/>
+      <c r="F117" s="18"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A118" s="17"/>
-      <c r="B118" s="17"/>
-      <c r="C118" s="17"/>
-      <c r="D118" s="17"/>
-      <c r="E118" s="17"/>
-      <c r="F118" s="17"/>
+      <c r="A118" s="16"/>
+      <c r="B118" s="16"/>
+      <c r="C118" s="16"/>
+      <c r="D118" s="16"/>
+      <c r="E118" s="16"/>
+      <c r="F118" s="18"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A119" s="17"/>
-      <c r="B119" s="17"/>
-      <c r="C119" s="17"/>
-      <c r="D119" s="17"/>
-      <c r="E119" s="17"/>
-      <c r="F119" s="17"/>
+      <c r="A119" s="16"/>
+      <c r="B119" s="16"/>
+      <c r="C119" s="16"/>
+      <c r="D119" s="16"/>
+      <c r="E119" s="16"/>
+      <c r="F119" s="18"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A120" s="17"/>
-      <c r="B120" s="17"/>
-      <c r="C120" s="17"/>
-      <c r="D120" s="17"/>
-      <c r="E120" s="17"/>
-      <c r="F120" s="17"/>
+      <c r="A120" s="16"/>
+      <c r="B120" s="16"/>
+      <c r="C120" s="16"/>
+      <c r="D120" s="16"/>
+      <c r="E120" s="16"/>
+      <c r="F120" s="18"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A121" s="17"/>
-      <c r="B121" s="17"/>
-      <c r="C121" s="17"/>
-      <c r="D121" s="17"/>
-      <c r="E121" s="17"/>
-      <c r="F121" s="17"/>
+      <c r="A121" s="16"/>
+      <c r="B121" s="16"/>
+      <c r="C121" s="16"/>
+      <c r="D121" s="16"/>
+      <c r="E121" s="16"/>
+      <c r="F121" s="18"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A122" s="17"/>
-      <c r="B122" s="17"/>
-      <c r="C122" s="17"/>
-      <c r="D122" s="17"/>
-      <c r="E122" s="17"/>
-      <c r="F122" s="17"/>
+      <c r="A122" s="16"/>
+      <c r="B122" s="16"/>
+      <c r="C122" s="16"/>
+      <c r="D122" s="16"/>
+      <c r="E122" s="16"/>
+      <c r="F122" s="18"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A123" s="17"/>
-      <c r="B123" s="17"/>
-      <c r="C123" s="17"/>
-      <c r="D123" s="17"/>
-      <c r="E123" s="17"/>
-      <c r="F123" s="17"/>
+      <c r="A123" s="16"/>
+      <c r="B123" s="16"/>
+      <c r="C123" s="16"/>
+      <c r="D123" s="16"/>
+      <c r="E123" s="16"/>
+      <c r="F123" s="18"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A124" s="17"/>
-      <c r="B124" s="17"/>
-      <c r="C124" s="17"/>
-      <c r="D124" s="17"/>
-      <c r="E124" s="17"/>
-      <c r="F124" s="17"/>
+      <c r="A124" s="16"/>
+      <c r="B124" s="16"/>
+      <c r="C124" s="16"/>
+      <c r="D124" s="16"/>
+      <c r="E124" s="16"/>
+      <c r="F124" s="18"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A125" s="17"/>
-      <c r="B125" s="17"/>
-      <c r="C125" s="17"/>
-      <c r="D125" s="17"/>
-      <c r="E125" s="17"/>
-      <c r="F125" s="17"/>
+      <c r="A125" s="16"/>
+      <c r="B125" s="16"/>
+      <c r="C125" s="16"/>
+      <c r="D125" s="16"/>
+      <c r="E125" s="16"/>
+      <c r="F125" s="18"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A126" s="17"/>
-      <c r="B126" s="17"/>
-      <c r="C126" s="17"/>
-      <c r="D126" s="17"/>
-      <c r="E126" s="17"/>
-      <c r="F126" s="17"/>
+      <c r="A126" s="16"/>
+      <c r="B126" s="16"/>
+      <c r="C126" s="16"/>
+      <c r="D126" s="16"/>
+      <c r="E126" s="16"/>
+      <c r="F126" s="18"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A127" s="17"/>
-      <c r="B127" s="17"/>
-      <c r="C127" s="17"/>
-      <c r="D127" s="17"/>
-      <c r="E127" s="17"/>
-      <c r="F127" s="17"/>
+      <c r="A127" s="16"/>
+      <c r="B127" s="16"/>
+      <c r="C127" s="16"/>
+      <c r="D127" s="16"/>
+      <c r="E127" s="16"/>
+      <c r="F127" s="18"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A128" s="17"/>
-      <c r="B128" s="17"/>
-      <c r="C128" s="17"/>
-      <c r="D128" s="17"/>
-      <c r="E128" s="17"/>
-      <c r="F128" s="17"/>
+      <c r="A128" s="16"/>
+      <c r="B128" s="16"/>
+      <c r="C128" s="16"/>
+      <c r="D128" s="16"/>
+      <c r="E128" s="16"/>
+      <c r="F128" s="18"/>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A129" s="17"/>
-      <c r="B129" s="17"/>
-      <c r="C129" s="17"/>
-      <c r="D129" s="17"/>
-      <c r="E129" s="17"/>
-      <c r="F129" s="17"/>
+      <c r="A129" s="16"/>
+      <c r="B129" s="16"/>
+      <c r="C129" s="16"/>
+      <c r="D129" s="16"/>
+      <c r="E129" s="16"/>
+      <c r="F129" s="18"/>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A130" s="17"/>
-      <c r="B130" s="17"/>
-      <c r="C130" s="17"/>
-      <c r="D130" s="17"/>
-      <c r="E130" s="17"/>
-      <c r="F130" s="17"/>
+      <c r="A130" s="16"/>
+      <c r="B130" s="16"/>
+      <c r="C130" s="16"/>
+      <c r="D130" s="16"/>
+      <c r="E130" s="16"/>
+      <c r="F130" s="18"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A131" s="17"/>
-      <c r="B131" s="17"/>
-      <c r="C131" s="17"/>
-      <c r="D131" s="17"/>
-      <c r="E131" s="17"/>
-      <c r="F131" s="17"/>
+      <c r="A131" s="16"/>
+      <c r="B131" s="16"/>
+      <c r="C131" s="16"/>
+      <c r="D131" s="16"/>
+      <c r="E131" s="16"/>
+      <c r="F131" s="18"/>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A132" s="17"/>
-      <c r="B132" s="17"/>
-      <c r="C132" s="17"/>
-      <c r="D132" s="17"/>
-      <c r="E132" s="17"/>
-      <c r="F132" s="17"/>
+      <c r="A132" s="16"/>
+      <c r="B132" s="16"/>
+      <c r="C132" s="16"/>
+      <c r="D132" s="16"/>
+      <c r="E132" s="16"/>
+      <c r="F132" s="18"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A133" s="17"/>
-      <c r="B133" s="17"/>
-      <c r="C133" s="17"/>
-      <c r="D133" s="17"/>
-      <c r="E133" s="17"/>
-      <c r="F133" s="17"/>
+      <c r="A133" s="16"/>
+      <c r="B133" s="16"/>
+      <c r="C133" s="16"/>
+      <c r="D133" s="16"/>
+      <c r="E133" s="16"/>
+      <c r="F133" s="18"/>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A134" s="17"/>
-      <c r="B134" s="17"/>
-      <c r="C134" s="17"/>
-      <c r="D134" s="17"/>
-      <c r="E134" s="17"/>
-      <c r="F134" s="17"/>
+      <c r="A134" s="16"/>
+      <c r="B134" s="16"/>
+      <c r="C134" s="16"/>
+      <c r="D134" s="16"/>
+      <c r="E134" s="16"/>
+      <c r="F134" s="18"/>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A135" s="17"/>
-      <c r="B135" s="17"/>
-      <c r="C135" s="17"/>
-      <c r="D135" s="17"/>
-      <c r="E135" s="17"/>
-      <c r="F135" s="17"/>
+      <c r="A135" s="16"/>
+      <c r="B135" s="16"/>
+      <c r="C135" s="16"/>
+      <c r="D135" s="16"/>
+      <c r="E135" s="16"/>
+      <c r="F135" s="18"/>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A136" s="17"/>
-      <c r="B136" s="17"/>
-      <c r="C136" s="17"/>
-      <c r="D136" s="17"/>
-      <c r="E136" s="17"/>
-      <c r="F136" s="17"/>
+      <c r="A136" s="16"/>
+      <c r="B136" s="16"/>
+      <c r="C136" s="16"/>
+      <c r="D136" s="16"/>
+      <c r="E136" s="16"/>
+      <c r="F136" s="18"/>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A137" s="17"/>
-      <c r="B137" s="17"/>
-      <c r="C137" s="17"/>
-      <c r="D137" s="17"/>
-      <c r="E137" s="17"/>
-      <c r="F137" s="17"/>
+      <c r="A137" s="16"/>
+      <c r="B137" s="16"/>
+      <c r="C137" s="16"/>
+      <c r="D137" s="16"/>
+      <c r="E137" s="16"/>
+      <c r="F137" s="18"/>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A138" s="17"/>
-      <c r="B138" s="17"/>
-      <c r="C138" s="17"/>
-      <c r="D138" s="17"/>
-      <c r="E138" s="17"/>
-      <c r="F138" s="17"/>
+      <c r="A138" s="16"/>
+      <c r="B138" s="16"/>
+      <c r="C138" s="16"/>
+      <c r="D138" s="16"/>
+      <c r="E138" s="16"/>
+      <c r="F138" s="18"/>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A139" s="17"/>
-      <c r="B139" s="17"/>
-      <c r="C139" s="17"/>
-      <c r="D139" s="17"/>
-      <c r="E139" s="17"/>
-      <c r="F139" s="17"/>
+      <c r="A139" s="16"/>
+      <c r="B139" s="16"/>
+      <c r="C139" s="16"/>
+      <c r="D139" s="16"/>
+      <c r="E139" s="16"/>
+      <c r="F139" s="18"/>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A140" s="17"/>
-      <c r="B140" s="17"/>
-      <c r="C140" s="17"/>
-      <c r="D140" s="17"/>
-      <c r="E140" s="17"/>
-      <c r="F140" s="17"/>
+      <c r="A140" s="16"/>
+      <c r="B140" s="16"/>
+      <c r="C140" s="16"/>
+      <c r="D140" s="16"/>
+      <c r="E140" s="16"/>
+      <c r="F140" s="18"/>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A141" s="17"/>
-      <c r="B141" s="17"/>
-      <c r="C141" s="17"/>
-      <c r="D141" s="17"/>
-      <c r="E141" s="17"/>
-      <c r="F141" s="17"/>
+      <c r="A141" s="16"/>
+      <c r="B141" s="16"/>
+      <c r="C141" s="16"/>
+      <c r="D141" s="16"/>
+      <c r="E141" s="16"/>
+      <c r="F141" s="18"/>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A142" s="17"/>
-      <c r="B142" s="17"/>
-      <c r="C142" s="17"/>
-      <c r="D142" s="17"/>
-      <c r="E142" s="17"/>
-      <c r="F142" s="17"/>
+      <c r="A142" s="16"/>
+      <c r="B142" s="16"/>
+      <c r="C142" s="16"/>
+      <c r="D142" s="16"/>
+      <c r="E142" s="16"/>
+      <c r="F142" s="18"/>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A143" s="17"/>
-      <c r="B143" s="17"/>
-      <c r="C143" s="17"/>
-      <c r="D143" s="17"/>
-      <c r="E143" s="17"/>
-      <c r="F143" s="17"/>
+      <c r="A143" s="16"/>
+      <c r="B143" s="16"/>
+      <c r="C143" s="16"/>
+      <c r="D143" s="16"/>
+      <c r="E143" s="16"/>
+      <c r="F143" s="18"/>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A144" s="17"/>
-      <c r="B144" s="17"/>
-      <c r="C144" s="17"/>
-      <c r="D144" s="17"/>
-      <c r="E144" s="17"/>
-      <c r="F144" s="17"/>
+      <c r="A144" s="16"/>
+      <c r="B144" s="16"/>
+      <c r="C144" s="16"/>
+      <c r="D144" s="16"/>
+      <c r="E144" s="16"/>
+      <c r="F144" s="18"/>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A145" s="17"/>
-      <c r="B145" s="17"/>
-      <c r="C145" s="17"/>
-      <c r="D145" s="17"/>
-      <c r="E145" s="17"/>
-      <c r="F145" s="17"/>
+      <c r="A145" s="16"/>
+      <c r="B145" s="16"/>
+      <c r="C145" s="16"/>
+      <c r="D145" s="16"/>
+      <c r="E145" s="16"/>
+      <c r="F145" s="18"/>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A146" s="17"/>
-      <c r="B146" s="17"/>
-      <c r="C146" s="17"/>
-      <c r="D146" s="17"/>
-      <c r="E146" s="17"/>
-      <c r="F146" s="17"/>
+      <c r="A146" s="16"/>
+      <c r="B146" s="16"/>
+      <c r="C146" s="16"/>
+      <c r="D146" s="16"/>
+      <c r="E146" s="16"/>
+      <c r="F146" s="18"/>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A147" s="17"/>
-      <c r="B147" s="17"/>
-      <c r="C147" s="17"/>
-      <c r="D147" s="17"/>
-      <c r="E147" s="17"/>
-      <c r="F147" s="17"/>
+      <c r="A147" s="16"/>
+      <c r="B147" s="16"/>
+      <c r="C147" s="16"/>
+      <c r="D147" s="16"/>
+      <c r="E147" s="16"/>
+      <c r="F147" s="18"/>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A148" s="17"/>
-      <c r="B148" s="17"/>
-      <c r="C148" s="17"/>
-      <c r="D148" s="17"/>
-      <c r="E148" s="17"/>
-      <c r="F148" s="17"/>
+      <c r="A148" s="16"/>
+      <c r="B148" s="16"/>
+      <c r="C148" s="16"/>
+      <c r="D148" s="16"/>
+      <c r="E148" s="16"/>
+      <c r="F148" s="18"/>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A149" s="17"/>
-      <c r="B149" s="17"/>
-      <c r="C149" s="17"/>
-      <c r="D149" s="17"/>
-      <c r="E149" s="17"/>
-      <c r="F149" s="17"/>
+      <c r="A149" s="16"/>
+      <c r="B149" s="16"/>
+      <c r="C149" s="16"/>
+      <c r="D149" s="16"/>
+      <c r="E149" s="16"/>
+      <c r="F149" s="18"/>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A150" s="17"/>
-      <c r="B150" s="17"/>
-      <c r="C150" s="17"/>
-      <c r="D150" s="17"/>
-      <c r="E150" s="17"/>
-      <c r="F150" s="17"/>
+      <c r="A150" s="16"/>
+      <c r="B150" s="16"/>
+      <c r="C150" s="16"/>
+      <c r="D150" s="16"/>
+      <c r="E150" s="16"/>
+      <c r="F150" s="18"/>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A151" s="17"/>
-      <c r="B151" s="17"/>
-      <c r="C151" s="17"/>
-      <c r="D151" s="17"/>
-      <c r="E151" s="17"/>
-      <c r="F151" s="17"/>
+      <c r="A151" s="16"/>
+      <c r="B151" s="16"/>
+      <c r="C151" s="16"/>
+      <c r="D151" s="16"/>
+      <c r="E151" s="16"/>
+      <c r="F151" s="18"/>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A152" s="17"/>
-      <c r="B152" s="17"/>
-      <c r="C152" s="17"/>
-      <c r="D152" s="17"/>
-      <c r="E152" s="17"/>
-      <c r="F152" s="17"/>
+      <c r="A152" s="16"/>
+      <c r="B152" s="16"/>
+      <c r="C152" s="16"/>
+      <c r="D152" s="16"/>
+      <c r="E152" s="16"/>
+      <c r="F152" s="18"/>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A153" s="17"/>
-      <c r="B153" s="17"/>
-      <c r="C153" s="17"/>
-      <c r="D153" s="17"/>
-      <c r="E153" s="17"/>
-      <c r="F153" s="17"/>
+      <c r="A153" s="16"/>
+      <c r="B153" s="16"/>
+      <c r="C153" s="16"/>
+      <c r="D153" s="16"/>
+      <c r="E153" s="16"/>
+      <c r="F153" s="18"/>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A154" s="17"/>
-      <c r="B154" s="17"/>
-      <c r="C154" s="17"/>
-      <c r="D154" s="17"/>
-      <c r="E154" s="17"/>
-      <c r="F154" s="17"/>
+      <c r="A154" s="16"/>
+      <c r="B154" s="16"/>
+      <c r="C154" s="16"/>
+      <c r="D154" s="16"/>
+      <c r="E154" s="16"/>
+      <c r="F154" s="18"/>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A155" s="17"/>
-      <c r="B155" s="17"/>
-      <c r="C155" s="17"/>
-      <c r="D155" s="17"/>
-      <c r="E155" s="17"/>
-      <c r="F155" s="17"/>
+      <c r="A155" s="16"/>
+      <c r="B155" s="16"/>
+      <c r="C155" s="16"/>
+      <c r="D155" s="16"/>
+      <c r="E155" s="16"/>
+      <c r="F155" s="18"/>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A156" s="17"/>
-      <c r="B156" s="17"/>
-      <c r="C156" s="17"/>
-      <c r="D156" s="17"/>
-      <c r="E156" s="17"/>
-      <c r="F156" s="17"/>
+      <c r="A156" s="16"/>
+      <c r="B156" s="16"/>
+      <c r="C156" s="16"/>
+      <c r="D156" s="16"/>
+      <c r="E156" s="16"/>
+      <c r="F156" s="18"/>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A157" s="17"/>
-      <c r="B157" s="17"/>
-      <c r="C157" s="17"/>
-      <c r="D157" s="17"/>
-      <c r="E157" s="17"/>
-      <c r="F157" s="17"/>
+      <c r="A157" s="16"/>
+      <c r="B157" s="16"/>
+      <c r="C157" s="16"/>
+      <c r="D157" s="16"/>
+      <c r="E157" s="16"/>
+      <c r="F157" s="18"/>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A158" s="17"/>
-      <c r="B158" s="17"/>
-      <c r="C158" s="17"/>
-      <c r="D158" s="17"/>
-      <c r="E158" s="17"/>
-      <c r="F158" s="17"/>
+      <c r="A158" s="16"/>
+      <c r="B158" s="16"/>
+      <c r="C158" s="16"/>
+      <c r="D158" s="16"/>
+      <c r="E158" s="16"/>
+      <c r="F158" s="18"/>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A159" s="17"/>
-      <c r="B159" s="17"/>
-      <c r="C159" s="17"/>
-      <c r="D159" s="17"/>
-      <c r="E159" s="17"/>
-      <c r="F159" s="17"/>
+      <c r="A159" s="16"/>
+      <c r="B159" s="16"/>
+      <c r="C159" s="16"/>
+      <c r="D159" s="16"/>
+      <c r="E159" s="16"/>
+      <c r="F159" s="18"/>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A160" s="17"/>
-      <c r="B160" s="17"/>
-      <c r="C160" s="17"/>
-      <c r="D160" s="17"/>
-      <c r="E160" s="17"/>
-      <c r="F160" s="17"/>
+      <c r="A160" s="16"/>
+      <c r="B160" s="16"/>
+      <c r="C160" s="16"/>
+      <c r="D160" s="16"/>
+      <c r="E160" s="16"/>
+      <c r="F160" s="18"/>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A161" s="17"/>
-      <c r="B161" s="17"/>
-      <c r="C161" s="17"/>
-      <c r="D161" s="17"/>
-      <c r="E161" s="17"/>
-      <c r="F161" s="17"/>
+      <c r="A161" s="16"/>
+      <c r="B161" s="16"/>
+      <c r="C161" s="16"/>
+      <c r="D161" s="16"/>
+      <c r="E161" s="16"/>
+      <c r="F161" s="18"/>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A162" s="17"/>
-      <c r="B162" s="17"/>
-      <c r="C162" s="17"/>
-      <c r="D162" s="17"/>
-      <c r="E162" s="17"/>
-      <c r="F162" s="17"/>
+      <c r="A162" s="16"/>
+      <c r="B162" s="16"/>
+      <c r="C162" s="16"/>
+      <c r="D162" s="16"/>
+      <c r="E162" s="16"/>
+      <c r="F162" s="18"/>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A163" s="17"/>
-      <c r="B163" s="17"/>
-      <c r="C163" s="17"/>
-      <c r="D163" s="17"/>
-      <c r="E163" s="17"/>
-      <c r="F163" s="17"/>
+      <c r="A163" s="16"/>
+      <c r="B163" s="16"/>
+      <c r="C163" s="16"/>
+      <c r="D163" s="16"/>
+      <c r="E163" s="16"/>
+      <c r="F163" s="18"/>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A164" s="17"/>
-      <c r="B164" s="17"/>
-      <c r="C164" s="17"/>
-      <c r="D164" s="17"/>
-      <c r="E164" s="17"/>
-      <c r="F164" s="17"/>
+      <c r="A164" s="16"/>
+      <c r="B164" s="16"/>
+      <c r="C164" s="16"/>
+      <c r="D164" s="16"/>
+      <c r="E164" s="16"/>
+      <c r="F164" s="18"/>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A165" s="17"/>
-      <c r="B165" s="17"/>
-      <c r="C165" s="17"/>
-      <c r="D165" s="17"/>
-      <c r="E165" s="17"/>
-      <c r="F165" s="17"/>
+      <c r="A165" s="16"/>
+      <c r="B165" s="16"/>
+      <c r="C165" s="16"/>
+      <c r="D165" s="16"/>
+      <c r="E165" s="16"/>
+      <c r="F165" s="18"/>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A166" s="17"/>
-      <c r="B166" s="17"/>
-      <c r="C166" s="17"/>
-      <c r="D166" s="17"/>
-      <c r="E166" s="17"/>
-      <c r="F166" s="17"/>
+      <c r="A166" s="16"/>
+      <c r="B166" s="16"/>
+      <c r="C166" s="16"/>
+      <c r="D166" s="16"/>
+      <c r="E166" s="16"/>
+      <c r="F166" s="18"/>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A167" s="17"/>
-      <c r="B167" s="17"/>
-      <c r="C167" s="17"/>
-      <c r="D167" s="17"/>
-      <c r="E167" s="17"/>
-      <c r="F167" s="17"/>
+      <c r="A167" s="16"/>
+      <c r="B167" s="16"/>
+      <c r="C167" s="16"/>
+      <c r="D167" s="16"/>
+      <c r="E167" s="16"/>
+      <c r="F167" s="18"/>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A168" s="17"/>
-      <c r="B168" s="17"/>
-      <c r="C168" s="17"/>
-      <c r="D168" s="17"/>
-      <c r="E168" s="17"/>
-      <c r="F168" s="17"/>
+      <c r="A168" s="16"/>
+      <c r="B168" s="16"/>
+      <c r="C168" s="16"/>
+      <c r="D168" s="16"/>
+      <c r="E168" s="16"/>
+      <c r="F168" s="18"/>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A169" s="17"/>
-      <c r="B169" s="17"/>
-      <c r="C169" s="17"/>
-      <c r="D169" s="17"/>
-      <c r="E169" s="17"/>
-      <c r="F169" s="17"/>
+      <c r="A169" s="16"/>
+      <c r="B169" s="16"/>
+      <c r="C169" s="16"/>
+      <c r="D169" s="16"/>
+      <c r="E169" s="16"/>
+      <c r="F169" s="18"/>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A170" s="17"/>
-      <c r="B170" s="17"/>
-      <c r="C170" s="17"/>
-      <c r="D170" s="17"/>
-      <c r="E170" s="17"/>
-      <c r="F170" s="17"/>
+      <c r="A170" s="16"/>
+      <c r="B170" s="16"/>
+      <c r="C170" s="16"/>
+      <c r="D170" s="16"/>
+      <c r="E170" s="16"/>
+      <c r="F170" s="18"/>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A171" s="17"/>
-      <c r="B171" s="17"/>
-      <c r="C171" s="17"/>
-      <c r="D171" s="17"/>
-      <c r="E171" s="17"/>
-      <c r="F171" s="17"/>
+      <c r="A171" s="16"/>
+      <c r="B171" s="16"/>
+      <c r="C171" s="16"/>
+      <c r="D171" s="16"/>
+      <c r="E171" s="16"/>
+      <c r="F171" s="18"/>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A172" s="17"/>
-      <c r="B172" s="17"/>
-      <c r="C172" s="17"/>
-      <c r="D172" s="17"/>
-      <c r="E172" s="17"/>
-      <c r="F172" s="17"/>
+      <c r="A172" s="16"/>
+      <c r="B172" s="16"/>
+      <c r="C172" s="16"/>
+      <c r="D172" s="16"/>
+      <c r="E172" s="16"/>
+      <c r="F172" s="18"/>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A173" s="17"/>
-      <c r="B173" s="17"/>
-      <c r="C173" s="17"/>
-      <c r="D173" s="17"/>
-      <c r="E173" s="17"/>
-      <c r="F173" s="17"/>
+      <c r="A173" s="16"/>
+      <c r="B173" s="16"/>
+      <c r="C173" s="16"/>
+      <c r="D173" s="16"/>
+      <c r="E173" s="16"/>
+      <c r="F173" s="18"/>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A174" s="17"/>
-      <c r="B174" s="17"/>
-      <c r="C174" s="17"/>
-      <c r="D174" s="17"/>
-      <c r="E174" s="17"/>
-      <c r="F174" s="17"/>
+      <c r="A174" s="16"/>
+      <c r="B174" s="16"/>
+      <c r="C174" s="16"/>
+      <c r="D174" s="16"/>
+      <c r="E174" s="16"/>
+      <c r="F174" s="18"/>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A175" s="17"/>
-      <c r="B175" s="17"/>
-      <c r="C175" s="17"/>
-      <c r="D175" s="17"/>
-      <c r="E175" s="17"/>
-      <c r="F175" s="17"/>
+      <c r="A175" s="16"/>
+      <c r="B175" s="16"/>
+      <c r="C175" s="16"/>
+      <c r="D175" s="16"/>
+      <c r="E175" s="16"/>
+      <c r="F175" s="18"/>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A176" s="17"/>
-      <c r="B176" s="17"/>
-      <c r="C176" s="17"/>
-      <c r="D176" s="17"/>
-      <c r="E176" s="17"/>
-      <c r="F176" s="17"/>
+      <c r="A176" s="16"/>
+      <c r="B176" s="16"/>
+      <c r="C176" s="16"/>
+      <c r="D176" s="16"/>
+      <c r="E176" s="16"/>
+      <c r="F176" s="18"/>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A177" s="17"/>
-      <c r="B177" s="17"/>
-      <c r="C177" s="17"/>
-      <c r="D177" s="17"/>
-      <c r="E177" s="17"/>
-      <c r="F177" s="17"/>
+      <c r="A177" s="16"/>
+      <c r="B177" s="16"/>
+      <c r="C177" s="16"/>
+      <c r="D177" s="16"/>
+      <c r="E177" s="16"/>
+      <c r="F177" s="18"/>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A178" s="17"/>
-      <c r="B178" s="17"/>
-      <c r="C178" s="17"/>
-      <c r="D178" s="17"/>
-      <c r="E178" s="17"/>
-      <c r="F178" s="17"/>
+      <c r="A178" s="16"/>
+      <c r="B178" s="16"/>
+      <c r="C178" s="16"/>
+      <c r="D178" s="16"/>
+      <c r="E178" s="16"/>
+      <c r="F178" s="18"/>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A179" s="17"/>
-      <c r="B179" s="17"/>
-      <c r="C179" s="17"/>
-      <c r="D179" s="17"/>
-      <c r="E179" s="17"/>
-      <c r="F179" s="17"/>
+      <c r="A179" s="16"/>
+      <c r="B179" s="16"/>
+      <c r="C179" s="16"/>
+      <c r="D179" s="16"/>
+      <c r="E179" s="16"/>
+      <c r="F179" s="18"/>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A180" s="17"/>
-      <c r="B180" s="17"/>
-      <c r="C180" s="17"/>
-      <c r="D180" s="17"/>
-      <c r="E180" s="17"/>
-      <c r="F180" s="17"/>
+      <c r="A180" s="16"/>
+      <c r="B180" s="16"/>
+      <c r="C180" s="16"/>
+      <c r="D180" s="16"/>
+      <c r="E180" s="16"/>
+      <c r="F180" s="18"/>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A181" s="17"/>
-      <c r="B181" s="17"/>
-      <c r="C181" s="17"/>
-      <c r="D181" s="17"/>
-      <c r="E181" s="17"/>
-      <c r="F181" s="17"/>
+      <c r="A181" s="16"/>
+      <c r="B181" s="16"/>
+      <c r="C181" s="16"/>
+      <c r="D181" s="16"/>
+      <c r="E181" s="16"/>
+      <c r="F181" s="18"/>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A182" s="17"/>
-      <c r="B182" s="17"/>
-      <c r="C182" s="17"/>
-      <c r="D182" s="17"/>
-      <c r="E182" s="17"/>
-      <c r="F182" s="17"/>
+      <c r="A182" s="16"/>
+      <c r="B182" s="16"/>
+      <c r="C182" s="16"/>
+      <c r="D182" s="16"/>
+      <c r="E182" s="16"/>
+      <c r="F182" s="18"/>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A183" s="17"/>
-      <c r="B183" s="17"/>
-      <c r="C183" s="17"/>
-      <c r="D183" s="17"/>
-      <c r="E183" s="17"/>
-      <c r="F183" s="17"/>
+      <c r="A183" s="16"/>
+      <c r="B183" s="16"/>
+      <c r="C183" s="16"/>
+      <c r="D183" s="16"/>
+      <c r="E183" s="16"/>
+      <c r="F183" s="18"/>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A184" s="17"/>
-      <c r="B184" s="17"/>
-      <c r="C184" s="17"/>
-      <c r="D184" s="17"/>
-      <c r="E184" s="17"/>
-      <c r="F184" s="17"/>
+      <c r="A184" s="16"/>
+      <c r="B184" s="16"/>
+      <c r="C184" s="16"/>
+      <c r="D184" s="16"/>
+      <c r="E184" s="16"/>
+      <c r="F184" s="18"/>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A185" s="17"/>
-      <c r="B185" s="17"/>
-      <c r="C185" s="17"/>
-      <c r="D185" s="17"/>
-      <c r="E185" s="17"/>
-      <c r="F185" s="17"/>
+      <c r="A185" s="16"/>
+      <c r="B185" s="16"/>
+      <c r="C185" s="16"/>
+      <c r="D185" s="16"/>
+      <c r="E185" s="16"/>
+      <c r="F185" s="18"/>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A186" s="17"/>
-      <c r="B186" s="17"/>
-      <c r="C186" s="17"/>
-      <c r="D186" s="17"/>
-      <c r="E186" s="17"/>
-      <c r="F186" s="17"/>
+      <c r="A186" s="16"/>
+      <c r="B186" s="16"/>
+      <c r="C186" s="16"/>
+      <c r="D186" s="16"/>
+      <c r="E186" s="16"/>
+      <c r="F186" s="18"/>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A187" s="17"/>
-      <c r="B187" s="17"/>
-      <c r="C187" s="17"/>
-      <c r="D187" s="17"/>
-      <c r="E187" s="17"/>
-      <c r="F187" s="17"/>
+      <c r="A187" s="16"/>
+      <c r="B187" s="16"/>
+      <c r="C187" s="16"/>
+      <c r="D187" s="16"/>
+      <c r="E187" s="16"/>
+      <c r="F187" s="18"/>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A188" s="17"/>
-      <c r="B188" s="17"/>
-      <c r="C188" s="17"/>
-      <c r="D188" s="17"/>
-      <c r="E188" s="17"/>
-      <c r="F188" s="17"/>
+      <c r="A188" s="16"/>
+      <c r="B188" s="16"/>
+      <c r="C188" s="16"/>
+      <c r="D188" s="16"/>
+      <c r="E188" s="16"/>
+      <c r="F188" s="18"/>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A189" s="17"/>
-      <c r="B189" s="17"/>
-      <c r="C189" s="17"/>
-      <c r="D189" s="17"/>
-      <c r="E189" s="17"/>
-      <c r="F189" s="17"/>
+      <c r="A189" s="16"/>
+      <c r="B189" s="16"/>
+      <c r="C189" s="16"/>
+      <c r="D189" s="16"/>
+      <c r="E189" s="16"/>
+      <c r="F189" s="18"/>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A190" s="17"/>
-      <c r="B190" s="17"/>
-      <c r="C190" s="17"/>
-      <c r="D190" s="17"/>
-      <c r="E190" s="17"/>
-      <c r="F190" s="17"/>
+      <c r="A190" s="16"/>
+      <c r="B190" s="16"/>
+      <c r="C190" s="16"/>
+      <c r="D190" s="16"/>
+      <c r="E190" s="16"/>
+      <c r="F190" s="18"/>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A191" s="17"/>
-      <c r="B191" s="17"/>
-      <c r="C191" s="17"/>
-      <c r="D191" s="17"/>
-      <c r="E191" s="17"/>
-      <c r="F191" s="17"/>
+      <c r="A191" s="16"/>
+      <c r="B191" s="16"/>
+      <c r="C191" s="16"/>
+      <c r="D191" s="16"/>
+      <c r="E191" s="16"/>
+      <c r="F191" s="18"/>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A192" s="17"/>
-      <c r="B192" s="17"/>
-      <c r="C192" s="17"/>
-      <c r="D192" s="17"/>
-      <c r="E192" s="17"/>
-      <c r="F192" s="17"/>
+      <c r="A192" s="16"/>
+      <c r="B192" s="16"/>
+      <c r="C192" s="16"/>
+      <c r="D192" s="16"/>
+      <c r="E192" s="16"/>
+      <c r="F192" s="18"/>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A193" s="17"/>
-      <c r="B193" s="17"/>
-      <c r="C193" s="17"/>
-      <c r="D193" s="17"/>
-      <c r="E193" s="17"/>
-      <c r="F193" s="17"/>
+      <c r="A193" s="16"/>
+      <c r="B193" s="16"/>
+      <c r="C193" s="16"/>
+      <c r="D193" s="16"/>
+      <c r="E193" s="16"/>
+      <c r="F193" s="18"/>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A194" s="17"/>
-      <c r="B194" s="17"/>
-      <c r="C194" s="17"/>
-      <c r="D194" s="17"/>
-      <c r="E194" s="17"/>
-      <c r="F194" s="17"/>
+      <c r="A194" s="16"/>
+      <c r="B194" s="16"/>
+      <c r="C194" s="16"/>
+      <c r="D194" s="16"/>
+      <c r="E194" s="16"/>
+      <c r="F194" s="18"/>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A195" s="17"/>
-      <c r="B195" s="17"/>
-      <c r="C195" s="17"/>
-      <c r="D195" s="17"/>
-      <c r="E195" s="17"/>
-      <c r="F195" s="17"/>
+      <c r="A195" s="16"/>
+      <c r="B195" s="16"/>
+      <c r="C195" s="16"/>
+      <c r="D195" s="16"/>
+      <c r="E195" s="16"/>
+      <c r="F195" s="18"/>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A196" s="17"/>
-      <c r="B196" s="17"/>
-      <c r="C196" s="17"/>
-      <c r="D196" s="17"/>
-      <c r="E196" s="17"/>
-      <c r="F196" s="17"/>
+      <c r="A196" s="16"/>
+      <c r="B196" s="16"/>
+      <c r="C196" s="16"/>
+      <c r="D196" s="16"/>
+      <c r="E196" s="16"/>
+      <c r="F196" s="18"/>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A197" s="17"/>
-      <c r="B197" s="17"/>
-      <c r="C197" s="17"/>
-      <c r="D197" s="17"/>
-      <c r="E197" s="17"/>
-      <c r="F197" s="17"/>
+      <c r="A197" s="16"/>
+      <c r="B197" s="16"/>
+      <c r="C197" s="16"/>
+      <c r="D197" s="16"/>
+      <c r="E197" s="16"/>
+      <c r="F197" s="18"/>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A198" s="17"/>
-      <c r="B198" s="17"/>
-      <c r="C198" s="17"/>
-      <c r="D198" s="17"/>
-      <c r="E198" s="17"/>
-      <c r="F198" s="17"/>
+      <c r="A198" s="16"/>
+      <c r="B198" s="16"/>
+      <c r="C198" s="16"/>
+      <c r="D198" s="16"/>
+      <c r="E198" s="16"/>
+      <c r="F198" s="18"/>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A199" s="17"/>
-      <c r="B199" s="17"/>
-      <c r="C199" s="17"/>
-      <c r="D199" s="17"/>
-      <c r="E199" s="17"/>
-      <c r="F199" s="17"/>
+      <c r="A199" s="16"/>
+      <c r="B199" s="16"/>
+      <c r="C199" s="16"/>
+      <c r="D199" s="16"/>
+      <c r="E199" s="16"/>
+      <c r="F199" s="18"/>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A200" s="17"/>
-      <c r="B200" s="17"/>
-      <c r="C200" s="17"/>
-      <c r="D200" s="17"/>
-      <c r="E200" s="17"/>
-      <c r="F200" s="17"/>
+      <c r="A200" s="16"/>
+      <c r="B200" s="16"/>
+      <c r="C200" s="16"/>
+      <c r="D200" s="16"/>
+      <c r="E200" s="16"/>
+      <c r="F200" s="18"/>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A201" s="17"/>
-      <c r="B201" s="17"/>
-      <c r="C201" s="17"/>
-      <c r="D201" s="17"/>
-      <c r="E201" s="17"/>
-      <c r="F201" s="17"/>
+      <c r="A201" s="16"/>
+      <c r="B201" s="16"/>
+      <c r="C201" s="16"/>
+      <c r="D201" s="16"/>
+      <c r="E201" s="16"/>
+      <c r="F201" s="18"/>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A202" s="17"/>
-      <c r="B202" s="17"/>
-      <c r="C202" s="17"/>
-      <c r="D202" s="17"/>
-      <c r="E202" s="17"/>
-      <c r="F202" s="17"/>
+      <c r="A202" s="16"/>
+      <c r="B202" s="16"/>
+      <c r="C202" s="16"/>
+      <c r="D202" s="16"/>
+      <c r="E202" s="16"/>
+      <c r="F202" s="18"/>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A203" s="17"/>
-      <c r="B203" s="17"/>
-      <c r="C203" s="17"/>
-      <c r="D203" s="17"/>
-      <c r="E203" s="17"/>
-      <c r="F203" s="17"/>
+      <c r="A203" s="16"/>
+      <c r="B203" s="16"/>
+      <c r="C203" s="16"/>
+      <c r="D203" s="16"/>
+      <c r="E203" s="16"/>
+      <c r="F203" s="18"/>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A204" s="17"/>
-      <c r="B204" s="17"/>
-      <c r="C204" s="17"/>
-      <c r="D204" s="17"/>
-      <c r="E204" s="17"/>
-      <c r="F204" s="17"/>
+      <c r="A204" s="16"/>
+      <c r="B204" s="16"/>
+      <c r="C204" s="16"/>
+      <c r="D204" s="16"/>
+      <c r="E204" s="16"/>
+      <c r="F204" s="18"/>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A205" s="17"/>
-      <c r="B205" s="17"/>
-      <c r="C205" s="17"/>
-      <c r="D205" s="17"/>
-      <c r="E205" s="17"/>
-      <c r="F205" s="17"/>
+      <c r="A205" s="16"/>
+      <c r="B205" s="16"/>
+      <c r="C205" s="16"/>
+      <c r="D205" s="16"/>
+      <c r="E205" s="16"/>
+      <c r="F205" s="18"/>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A206" s="17"/>
-      <c r="B206" s="17"/>
-      <c r="C206" s="17"/>
-      <c r="D206" s="17"/>
-      <c r="E206" s="17"/>
-      <c r="F206" s="17"/>
+      <c r="A206" s="16"/>
+      <c r="B206" s="16"/>
+      <c r="C206" s="16"/>
+      <c r="D206" s="16"/>
+      <c r="E206" s="16"/>
+      <c r="F206" s="18"/>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A207" s="17"/>
-      <c r="B207" s="17"/>
-      <c r="C207" s="17"/>
-      <c r="D207" s="17"/>
-      <c r="E207" s="17"/>
-      <c r="F207" s="17"/>
+      <c r="A207" s="16"/>
+      <c r="B207" s="16"/>
+      <c r="C207" s="16"/>
+      <c r="D207" s="16"/>
+      <c r="E207" s="16"/>
+      <c r="F207" s="18"/>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A208" s="17"/>
-      <c r="B208" s="17"/>
-      <c r="C208" s="17"/>
-      <c r="D208" s="17"/>
-      <c r="E208" s="17"/>
-      <c r="F208" s="17"/>
+      <c r="A208" s="16"/>
+      <c r="B208" s="16"/>
+      <c r="C208" s="16"/>
+      <c r="D208" s="16"/>
+      <c r="E208" s="16"/>
+      <c r="F208" s="18"/>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A209" s="17"/>
-      <c r="B209" s="17"/>
-      <c r="C209" s="17"/>
-      <c r="D209" s="17"/>
-      <c r="E209" s="17"/>
-      <c r="F209" s="17"/>
+      <c r="A209" s="16"/>
+      <c r="B209" s="16"/>
+      <c r="C209" s="16"/>
+      <c r="D209" s="16"/>
+      <c r="E209" s="16"/>
+      <c r="F209" s="18"/>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A210" s="17"/>
-      <c r="B210" s="17"/>
-      <c r="C210" s="17"/>
-      <c r="D210" s="17"/>
-      <c r="E210" s="17"/>
-      <c r="F210" s="17"/>
+      <c r="A210" s="16"/>
+      <c r="B210" s="16"/>
+      <c r="C210" s="16"/>
+      <c r="D210" s="16"/>
+      <c r="E210" s="16"/>
+      <c r="F210" s="18"/>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" s="16"/>
@@ -2867,9 +3221,10 @@
       <c r="C211" s="16"/>
       <c r="D211" s="16"/>
       <c r="E211" s="16"/>
-      <c r="F211" s="16"/>
+      <c r="F211" s="18"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/APositive.xlsx
+++ b/APositive.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Achu\WWW\Hridayasparsham\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Achu\EH\Git\Hridyasparsham\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{604572CB-D042-4E05-A9C4-838FF6BE6F34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E9AD99-59E9-4AAD-8103-AAA273399C49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{504CD3D7-3C5E-42A8-B35F-975F1BB80D5F}"/>
   </bookViews>
@@ -101,92 +101,6 @@
     <t>SNEHA T THAMPAN</t>
   </si>
   <si>
-    <t>Abhayram</t>
-  </si>
-  <si>
-    <t>Aju Geevarghese</t>
-  </si>
-  <si>
-    <t>Akhila KS</t>
-  </si>
-  <si>
-    <t>Ammu Babu MP</t>
-  </si>
-  <si>
-    <t>Amritha Madhu</t>
-  </si>
-  <si>
-    <t>Annie Alex Anathanam</t>
-  </si>
-  <si>
-    <t>Aswini Jose</t>
-  </si>
-  <si>
-    <t>Athul Sajan</t>
-  </si>
-  <si>
-    <t>Dona Katharin Joseph</t>
-  </si>
-  <si>
-    <t>Gopika S</t>
-  </si>
-  <si>
-    <t>Gowrikrishna  D</t>
-  </si>
-  <si>
-    <t>Irene Anna Thomas</t>
-  </si>
-  <si>
-    <t>Jiss Maria Jaihar</t>
-  </si>
-  <si>
-    <t>Joyal Jo Anson</t>
-  </si>
-  <si>
-    <t>Kevin Jose Manippadam</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Loriahta Elssa Abisal
-Thomas</t>
-    </r>
-  </si>
-  <si>
-    <t>Martin Jose</t>
-  </si>
-  <si>
-    <t>Merin Mathew</t>
-  </si>
-  <si>
-    <t>Metilda Babychan</t>
-  </si>
-  <si>
-    <t>Mishma Susan Abraham</t>
-  </si>
-  <si>
-    <t>Nathaniya Thannan</t>
-  </si>
-  <si>
-    <t>Sarang SM</t>
-  </si>
-  <si>
-    <t>Sonia Louis</t>
-  </si>
-  <si>
-    <t>Steave G Thomas</t>
-  </si>
-  <si>
-    <t>Tomin Johny</t>
-  </si>
-  <si>
-    <t>Twinkle Andrew</t>
-  </si>
-  <si>
     <t>2019 MBBS</t>
   </si>
   <si>
@@ -278,6 +192,85 @@
   </si>
   <si>
     <t>SUMIT SINGH</t>
+  </si>
+  <si>
+    <t>ABHAYRAM</t>
+  </si>
+  <si>
+    <t>AJU GEEVARGHESE</t>
+  </si>
+  <si>
+    <t>AKHILA KS</t>
+  </si>
+  <si>
+    <t>AMMU BABU MP</t>
+  </si>
+  <si>
+    <t>AMRITHA MADHU</t>
+  </si>
+  <si>
+    <t>ANNIE ALEX ANATHANAM</t>
+  </si>
+  <si>
+    <t>ASWINI JOSE</t>
+  </si>
+  <si>
+    <t>ATHUL SAJAN</t>
+  </si>
+  <si>
+    <t>DONA KATHARIN JOSEPH</t>
+  </si>
+  <si>
+    <t>GOPIKA S</t>
+  </si>
+  <si>
+    <t>GOWRIKRISHNA  D</t>
+  </si>
+  <si>
+    <t>IRENE ANNA THOMAS</t>
+  </si>
+  <si>
+    <t>JISS MARIA JAIHAR</t>
+  </si>
+  <si>
+    <t>JOYAL JO ANSON</t>
+  </si>
+  <si>
+    <t>KEVIN JOSE MANIPPADAM</t>
+  </si>
+  <si>
+    <t>LORIAHTA ELSSA ABISAL
+THOMAS</t>
+  </si>
+  <si>
+    <t>MARTIN JOSE</t>
+  </si>
+  <si>
+    <t>MERIN MATHEW</t>
+  </si>
+  <si>
+    <t>METILDA BABYCHAN</t>
+  </si>
+  <si>
+    <t>MISHMA SUSAN ABRAHAM</t>
+  </si>
+  <si>
+    <t>NATHANIYA THANNAN</t>
+  </si>
+  <si>
+    <t>SARANG SM</t>
+  </si>
+  <si>
+    <t>SONIA LOUIS</t>
+  </si>
+  <si>
+    <t>STEAVE G THOMAS</t>
+  </si>
+  <si>
+    <t>TOMIN JOHNY</t>
+  </si>
+  <si>
+    <t>TWINKLE ANDREW</t>
   </si>
 </sst>
 </file>
@@ -475,7 +468,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -525,13 +518,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -876,8 +863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38A89F49-A16D-44C4-953A-25A0144156A7}">
   <dimension ref="A1:F211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="G64" sqref="G64"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -887,7 +874,7 @@
     <col min="3" max="3" width="17.77734375" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.21875" style="19" customWidth="1"/>
+    <col min="6" max="6" width="27.21875" style="1" customWidth="1"/>
     <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
@@ -914,468 +901,468 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
       <c r="C2" s="8">
         <v>9497122137</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="18"/>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="C3" s="8">
         <v>8281296951</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="18"/>
+      <c r="F3" s="16"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="11">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="C4" s="8">
         <v>9656165971</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="18"/>
+      <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="C5" s="8">
         <v>7356692019</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="18"/>
+      <c r="F5" s="16"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="C6" s="8">
         <v>9605246675</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="18"/>
+      <c r="F6" s="16"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="C7" s="8">
         <v>8592806620</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="18"/>
+      <c r="F7" s="16"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="11">
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="C8" s="8">
         <v>8943753445</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="18"/>
+      <c r="F8" s="16"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="11">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="C9" s="8">
         <v>9605054543</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="18"/>
+      <c r="F9" s="16"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="C10" s="8">
         <v>9497463989</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="18"/>
+      <c r="F10" s="16"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="11">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="C11" s="8">
         <v>7561070649</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="18"/>
+      <c r="F11" s="16"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="C12" s="8">
         <v>9645282552</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="18"/>
+      <c r="F12" s="16"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="11">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>32</v>
+        <v>63</v>
       </c>
       <c r="C13" s="8">
         <v>8281684741</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="18"/>
+      <c r="F13" s="16"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="C14" s="8">
         <v>7994794968</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="18"/>
+      <c r="F14" s="16"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="11">
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="C15" s="8">
         <v>9544046514</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="18"/>
+      <c r="F15" s="16"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="11">
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="C16" s="8">
         <v>8281577048</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="18"/>
+      <c r="F16" s="16"/>
     </row>
     <row r="17" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
         <v>16</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="C17" s="8">
         <v>7510931026</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F17" s="18"/>
+      <c r="F17" s="16"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="11">
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="C18" s="8">
         <v>9562456890</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F18" s="18"/>
+      <c r="F18" s="16"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="11">
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="C19" s="8">
         <v>8078052189</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F19" s="18"/>
+      <c r="F19" s="16"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="11">
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="C20" s="8">
         <v>7902201908</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F20" s="18"/>
+      <c r="F20" s="16"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="11">
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="C21" s="8">
         <v>7025467843</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="18"/>
+      <c r="F21" s="16"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="11">
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="C22" s="8">
         <v>9497284941</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="E22" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F22" s="18"/>
+      <c r="F22" s="16"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="11">
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="C23" s="8">
         <v>9074217058</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F23" s="18"/>
+      <c r="F23" s="16"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="11">
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="C24" s="8">
         <v>8589852971</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="E24" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F24" s="18"/>
+      <c r="F24" s="16"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="11">
         <v>24</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="C25" s="8">
         <v>9447426822</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="E25" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F25" s="18"/>
+      <c r="F25" s="16"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="15">
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="C26" s="9">
         <v>7306179793</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="E26" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F26" s="18"/>
+      <c r="F26" s="16"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="11">
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="C27" s="10">
         <v>9961423181</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="E27" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F27" s="18"/>
+      <c r="F27" s="16"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="11">
@@ -1388,12 +1375,12 @@
         <v>9447555454</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="E28" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F28" s="18"/>
+      <c r="F28" s="16"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="11">
@@ -1406,12 +1393,12 @@
         <v>9447274502</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="E29" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F29" s="18"/>
+      <c r="F29" s="16"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="11">
@@ -1424,12 +1411,12 @@
         <v>9715043450</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="E30" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F30" s="18"/>
+      <c r="F30" s="16"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="11">
@@ -1442,12 +1429,12 @@
         <v>8111983244</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="E31" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F31" s="18"/>
+      <c r="F31" s="16"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="11">
@@ -1460,12 +1447,12 @@
         <v>9496737222</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="E32" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F32" s="18"/>
+      <c r="F32" s="16"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="11">
@@ -1478,12 +1465,12 @@
         <v>9952861683</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="E33" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F33" s="18"/>
+      <c r="F33" s="16"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="11">
@@ -1496,12 +1483,12 @@
         <v>9249437529</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="E34" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F34" s="18"/>
+      <c r="F34" s="16"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="11">
@@ -1514,12 +1501,12 @@
         <v>9497340349</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="E35" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F35" s="18"/>
+      <c r="F35" s="16"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="11">
@@ -1532,12 +1519,12 @@
         <v>9447452243</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="E36" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F36" s="18"/>
+      <c r="F36" s="16"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="11">
@@ -1550,12 +1537,12 @@
         <v>9074757340</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="E37" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F37" s="18"/>
+      <c r="F37" s="16"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="11">
@@ -1568,12 +1555,12 @@
         <v>9744785033</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="E38" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F38" s="18"/>
+      <c r="F38" s="16"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="11">
@@ -1586,12 +1573,12 @@
         <v>8157991366</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="E39" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F39" s="18"/>
+      <c r="F39" s="16"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="11">
@@ -1604,12 +1591,12 @@
         <v>9496792942</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="E40" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F40" s="18"/>
+      <c r="F40" s="16"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="11">
@@ -1622,478 +1609,534 @@
         <v>9447705749</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="E41" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F41" s="18"/>
+      <c r="F41" s="16"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="11">
         <v>41</v>
       </c>
-      <c r="B42" s="20" t="s">
+      <c r="B42" s="18" t="s">
         <v>20</v>
       </c>
       <c r="C42" s="11">
         <v>9446617224</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="E42" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F42" s="18"/>
+      <c r="F42" s="16"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="11">
         <v>42</v>
       </c>
-      <c r="B43" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C43" s="11"/>
+      <c r="B43" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C43" s="11">
+        <v>8891063704</v>
+      </c>
       <c r="D43" s="11" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="E43" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F43" s="18"/>
+      <c r="F43" s="16"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="11">
         <v>43</v>
       </c>
-      <c r="B44" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C44" s="11"/>
+      <c r="B44" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44" s="11">
+        <v>8890106808</v>
+      </c>
       <c r="D44" s="11" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="E44" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F44" s="18"/>
+      <c r="F44" s="16"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="11">
         <v>44</v>
       </c>
-      <c r="B45" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="C45" s="11"/>
+      <c r="B45" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C45" s="11">
+        <v>8281614195</v>
+      </c>
       <c r="D45" s="11" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="E45" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F45" s="18"/>
+      <c r="F45" s="16"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="11">
         <v>45</v>
       </c>
-      <c r="B46" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="C46" s="11"/>
+      <c r="B46" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C46" s="11">
+        <v>7034115532</v>
+      </c>
       <c r="D46" s="11" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="E46" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F46" s="18"/>
+      <c r="F46" s="16"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="11">
         <v>46</v>
       </c>
-      <c r="B47" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="C47" s="11"/>
+      <c r="B47" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C47" s="11">
+        <v>8714287235</v>
+      </c>
       <c r="D47" s="11" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="E47" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F47" s="18"/>
+      <c r="F47" s="16"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="11">
         <v>47</v>
       </c>
-      <c r="B48" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="C48" s="11"/>
+      <c r="B48" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C48" s="11">
+        <v>8590227895</v>
+      </c>
       <c r="D48" s="11" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="E48" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F48" s="18"/>
+      <c r="F48" s="16"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="11">
         <v>48</v>
       </c>
-      <c r="B49" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="C49" s="11"/>
+      <c r="B49" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C49" s="11">
+        <v>8547970599</v>
+      </c>
       <c r="D49" s="11" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="E49" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F49" s="18"/>
+      <c r="F49" s="16"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="11">
         <v>49</v>
       </c>
-      <c r="B50" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="C50" s="11"/>
+      <c r="B50" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C50" s="11">
+        <v>9567390363</v>
+      </c>
       <c r="D50" s="11" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="E50" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F50" s="18"/>
+      <c r="F50" s="16"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="11">
         <v>50</v>
       </c>
-      <c r="B51" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="C51" s="11"/>
+      <c r="B51" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C51" s="11">
+        <v>9074020116</v>
+      </c>
       <c r="D51" s="11" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="E51" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F51" s="18"/>
+      <c r="F51" s="16"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="11">
         <v>51</v>
       </c>
-      <c r="B52" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="C52" s="11"/>
+      <c r="B52" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C52" s="11">
+        <v>8129400870</v>
+      </c>
       <c r="D52" s="11" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="E52" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F52" s="18"/>
+      <c r="F52" s="16"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="11">
         <v>52</v>
       </c>
-      <c r="B53" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="C53" s="11"/>
+      <c r="B53" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C53" s="11">
+        <v>9526235729</v>
+      </c>
       <c r="D53" s="11" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="E53" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F53" s="18"/>
+      <c r="F53" s="16"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="11">
         <v>53</v>
       </c>
-      <c r="B54" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="C54" s="11"/>
+      <c r="B54" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C54" s="11">
+        <v>9072478888</v>
+      </c>
       <c r="D54" s="11" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="E54" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F54" s="18"/>
+      <c r="F54" s="16"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="11">
         <v>54</v>
       </c>
-      <c r="B55" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="C55" s="11"/>
+      <c r="B55" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C55" s="11">
+        <v>6238970603</v>
+      </c>
       <c r="D55" s="11" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="E55" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F55" s="18"/>
+      <c r="F55" s="16"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="11">
         <v>55</v>
       </c>
-      <c r="B56" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="C56" s="11"/>
+      <c r="B56" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C56" s="11">
+        <v>7306247554</v>
+      </c>
       <c r="D56" s="11" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="E56" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F56" s="18"/>
+      <c r="F56" s="16"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="11">
         <v>56</v>
       </c>
-      <c r="B57" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="C57" s="11"/>
+      <c r="B57" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C57" s="11">
+        <v>9495689382</v>
+      </c>
       <c r="D57" s="11" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="E57" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F57" s="18"/>
+      <c r="F57" s="16"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="11">
         <v>57</v>
       </c>
-      <c r="B58" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="C58" s="11"/>
+      <c r="B58" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C58" s="11">
+        <v>7593868503</v>
+      </c>
       <c r="D58" s="11" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="E58" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F58" s="18"/>
+      <c r="F58" s="16"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="11">
         <v>58</v>
       </c>
-      <c r="B59" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="C59" s="11"/>
+      <c r="B59" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C59" s="11">
+        <v>6238597362</v>
+      </c>
       <c r="D59" s="11" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="E59" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F59" s="18"/>
+      <c r="F59" s="16"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="11">
         <v>59</v>
       </c>
-      <c r="B60" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="C60" s="11"/>
+      <c r="B60" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C60" s="11">
+        <v>8714443175</v>
+      </c>
       <c r="D60" s="11" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="E60" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F60" s="18"/>
+      <c r="F60" s="16"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="11">
         <v>60</v>
       </c>
-      <c r="B61" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="C61" s="11"/>
+      <c r="B61" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C61" s="11">
+        <v>9446041692</v>
+      </c>
       <c r="D61" s="11" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="E61" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F61" s="18"/>
+      <c r="F61" s="16"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="11">
         <v>61</v>
       </c>
-      <c r="B62" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="C62" s="11"/>
+      <c r="B62" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C62" s="11">
+        <v>9447456588</v>
+      </c>
       <c r="D62" s="11" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="E62" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F62" s="18"/>
+      <c r="F62" s="16"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="11">
         <v>62</v>
       </c>
-      <c r="B63" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="C63" s="11"/>
+      <c r="B63" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C63" s="11">
+        <v>8590997980</v>
+      </c>
       <c r="D63" s="11" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="E63" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F63" s="18"/>
+      <c r="F63" s="16"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="11">
         <v>63</v>
       </c>
-      <c r="B64" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="C64" s="11"/>
+      <c r="B64" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C64" s="11">
+        <v>8078521701</v>
+      </c>
       <c r="D64" s="11" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="E64" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F64" s="18"/>
+      <c r="F64" s="16"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="11">
         <v>64</v>
       </c>
-      <c r="B65" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="C65" s="11"/>
+      <c r="B65" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C65" s="11">
+        <v>9746143411</v>
+      </c>
       <c r="D65" s="11" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="E65" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F65" s="18"/>
+      <c r="F65" s="16"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="11">
         <v>65</v>
       </c>
-      <c r="B66" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="C66" s="11"/>
+      <c r="B66" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C66" s="11">
+        <v>9567074475</v>
+      </c>
       <c r="D66" s="11" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="E66" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F66" s="18"/>
+      <c r="F66" s="16"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="11">
         <v>66</v>
       </c>
-      <c r="B67" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="C67" s="11"/>
+      <c r="B67" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C67" s="11">
+        <v>7569444700</v>
+      </c>
       <c r="D67" s="11" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="E67" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F67" s="18"/>
+      <c r="F67" s="16"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="11">
         <v>67</v>
       </c>
-      <c r="B68" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="C68" s="11"/>
+      <c r="B68" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C68" s="11">
+        <v>9497550760</v>
+      </c>
       <c r="D68" s="11" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="E68" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F68" s="18"/>
+      <c r="F68" s="16"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="11">
         <v>68</v>
       </c>
-      <c r="B69" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="C69" s="11"/>
+      <c r="B69" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C69" s="11">
+        <v>9037358727</v>
+      </c>
       <c r="D69" s="11" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="E69" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F69" s="18"/>
+      <c r="F69" s="16"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="11">
         <v>69</v>
       </c>
-      <c r="B70" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="C70" s="11"/>
+      <c r="B70" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C70" s="11">
+        <v>8929192979</v>
+      </c>
       <c r="D70" s="11" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="E70" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F70" s="18"/>
+      <c r="F70" s="16"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="16"/>
@@ -2101,7 +2144,7 @@
       <c r="C71" s="16"/>
       <c r="D71" s="16"/>
       <c r="E71" s="16"/>
-      <c r="F71" s="18"/>
+      <c r="F71" s="16"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="16"/>
@@ -2109,7 +2152,7 @@
       <c r="C72" s="16"/>
       <c r="D72" s="16"/>
       <c r="E72" s="16"/>
-      <c r="F72" s="18"/>
+      <c r="F72" s="16"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="16"/>
@@ -2117,7 +2160,7 @@
       <c r="C73" s="16"/>
       <c r="D73" s="16"/>
       <c r="E73" s="16"/>
-      <c r="F73" s="18"/>
+      <c r="F73" s="16"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="16"/>
@@ -2125,7 +2168,7 @@
       <c r="C74" s="16"/>
       <c r="D74" s="16"/>
       <c r="E74" s="16"/>
-      <c r="F74" s="18"/>
+      <c r="F74" s="16"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="16"/>
@@ -2133,7 +2176,7 @@
       <c r="C75" s="16"/>
       <c r="D75" s="16"/>
       <c r="E75" s="16"/>
-      <c r="F75" s="18"/>
+      <c r="F75" s="16"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="16"/>
@@ -2141,7 +2184,7 @@
       <c r="C76" s="16"/>
       <c r="D76" s="16"/>
       <c r="E76" s="16"/>
-      <c r="F76" s="18"/>
+      <c r="F76" s="16"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="16"/>
@@ -2149,7 +2192,7 @@
       <c r="C77" s="16"/>
       <c r="D77" s="16"/>
       <c r="E77" s="16"/>
-      <c r="F77" s="18"/>
+      <c r="F77" s="16"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="16"/>
@@ -2157,7 +2200,7 @@
       <c r="C78" s="16"/>
       <c r="D78" s="16"/>
       <c r="E78" s="16"/>
-      <c r="F78" s="18"/>
+      <c r="F78" s="16"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="16"/>
@@ -2165,7 +2208,7 @@
       <c r="C79" s="16"/>
       <c r="D79" s="16"/>
       <c r="E79" s="16"/>
-      <c r="F79" s="18"/>
+      <c r="F79" s="16"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="16"/>
@@ -2173,7 +2216,7 @@
       <c r="C80" s="16"/>
       <c r="D80" s="16"/>
       <c r="E80" s="16"/>
-      <c r="F80" s="18"/>
+      <c r="F80" s="16"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="16"/>
@@ -2181,7 +2224,7 @@
       <c r="C81" s="16"/>
       <c r="D81" s="16"/>
       <c r="E81" s="16"/>
-      <c r="F81" s="18"/>
+      <c r="F81" s="16"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="16"/>
@@ -2189,7 +2232,7 @@
       <c r="C82" s="16"/>
       <c r="D82" s="16"/>
       <c r="E82" s="16"/>
-      <c r="F82" s="18"/>
+      <c r="F82" s="16"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="16"/>
@@ -2197,7 +2240,7 @@
       <c r="C83" s="16"/>
       <c r="D83" s="16"/>
       <c r="E83" s="16"/>
-      <c r="F83" s="18"/>
+      <c r="F83" s="16"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="16"/>
@@ -2205,7 +2248,7 @@
       <c r="C84" s="16"/>
       <c r="D84" s="16"/>
       <c r="E84" s="16"/>
-      <c r="F84" s="18"/>
+      <c r="F84" s="16"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="16"/>
@@ -2213,7 +2256,7 @@
       <c r="C85" s="16"/>
       <c r="D85" s="16"/>
       <c r="E85" s="16"/>
-      <c r="F85" s="18"/>
+      <c r="F85" s="16"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="16"/>
@@ -2221,7 +2264,7 @@
       <c r="C86" s="16"/>
       <c r="D86" s="16"/>
       <c r="E86" s="16"/>
-      <c r="F86" s="18"/>
+      <c r="F86" s="16"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="16"/>
@@ -2229,7 +2272,7 @@
       <c r="C87" s="16"/>
       <c r="D87" s="16"/>
       <c r="E87" s="16"/>
-      <c r="F87" s="18"/>
+      <c r="F87" s="16"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="16"/>
@@ -2237,7 +2280,7 @@
       <c r="C88" s="16"/>
       <c r="D88" s="16"/>
       <c r="E88" s="16"/>
-      <c r="F88" s="18"/>
+      <c r="F88" s="16"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="16"/>
@@ -2245,7 +2288,7 @@
       <c r="C89" s="16"/>
       <c r="D89" s="16"/>
       <c r="E89" s="16"/>
-      <c r="F89" s="18"/>
+      <c r="F89" s="16"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="16"/>
@@ -2253,7 +2296,7 @@
       <c r="C90" s="16"/>
       <c r="D90" s="16"/>
       <c r="E90" s="16"/>
-      <c r="F90" s="18"/>
+      <c r="F90" s="16"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="16"/>
@@ -2261,7 +2304,7 @@
       <c r="C91" s="16"/>
       <c r="D91" s="16"/>
       <c r="E91" s="16"/>
-      <c r="F91" s="18"/>
+      <c r="F91" s="16"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="16"/>
@@ -2269,7 +2312,7 @@
       <c r="C92" s="16"/>
       <c r="D92" s="16"/>
       <c r="E92" s="16"/>
-      <c r="F92" s="18"/>
+      <c r="F92" s="16"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="16"/>
@@ -2277,7 +2320,7 @@
       <c r="C93" s="16"/>
       <c r="D93" s="16"/>
       <c r="E93" s="16"/>
-      <c r="F93" s="18"/>
+      <c r="F93" s="16"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="16"/>
@@ -2285,7 +2328,7 @@
       <c r="C94" s="16"/>
       <c r="D94" s="16"/>
       <c r="E94" s="16"/>
-      <c r="F94" s="18"/>
+      <c r="F94" s="16"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="16"/>
@@ -2293,7 +2336,7 @@
       <c r="C95" s="16"/>
       <c r="D95" s="16"/>
       <c r="E95" s="16"/>
-      <c r="F95" s="18"/>
+      <c r="F95" s="16"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="16"/>
@@ -2301,7 +2344,7 @@
       <c r="C96" s="16"/>
       <c r="D96" s="16"/>
       <c r="E96" s="16"/>
-      <c r="F96" s="18"/>
+      <c r="F96" s="16"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="16"/>
@@ -2309,7 +2352,7 @@
       <c r="C97" s="16"/>
       <c r="D97" s="16"/>
       <c r="E97" s="16"/>
-      <c r="F97" s="18"/>
+      <c r="F97" s="16"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="16"/>
@@ -2317,7 +2360,7 @@
       <c r="C98" s="16"/>
       <c r="D98" s="16"/>
       <c r="E98" s="16"/>
-      <c r="F98" s="18"/>
+      <c r="F98" s="16"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="16"/>
@@ -2325,7 +2368,7 @@
       <c r="C99" s="16"/>
       <c r="D99" s="16"/>
       <c r="E99" s="16"/>
-      <c r="F99" s="18"/>
+      <c r="F99" s="16"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="16"/>
@@ -2333,7 +2376,7 @@
       <c r="C100" s="16"/>
       <c r="D100" s="16"/>
       <c r="E100" s="16"/>
-      <c r="F100" s="18"/>
+      <c r="F100" s="16"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="16"/>
@@ -2341,7 +2384,7 @@
       <c r="C101" s="16"/>
       <c r="D101" s="16"/>
       <c r="E101" s="16"/>
-      <c r="F101" s="18"/>
+      <c r="F101" s="16"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="16"/>
@@ -2349,7 +2392,7 @@
       <c r="C102" s="16"/>
       <c r="D102" s="16"/>
       <c r="E102" s="16"/>
-      <c r="F102" s="18"/>
+      <c r="F102" s="16"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="16"/>
@@ -2357,7 +2400,7 @@
       <c r="C103" s="16"/>
       <c r="D103" s="16"/>
       <c r="E103" s="16"/>
-      <c r="F103" s="18"/>
+      <c r="F103" s="16"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="16"/>
@@ -2365,7 +2408,7 @@
       <c r="C104" s="16"/>
       <c r="D104" s="16"/>
       <c r="E104" s="16"/>
-      <c r="F104" s="18"/>
+      <c r="F104" s="16"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="16"/>
@@ -2373,7 +2416,7 @@
       <c r="C105" s="16"/>
       <c r="D105" s="16"/>
       <c r="E105" s="16"/>
-      <c r="F105" s="18"/>
+      <c r="F105" s="16"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="16"/>
@@ -2381,7 +2424,7 @@
       <c r="C106" s="16"/>
       <c r="D106" s="16"/>
       <c r="E106" s="16"/>
-      <c r="F106" s="18"/>
+      <c r="F106" s="16"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="16"/>
@@ -2389,7 +2432,7 @@
       <c r="C107" s="16"/>
       <c r="D107" s="16"/>
       <c r="E107" s="16"/>
-      <c r="F107" s="18"/>
+      <c r="F107" s="16"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="16"/>
@@ -2397,7 +2440,7 @@
       <c r="C108" s="16"/>
       <c r="D108" s="16"/>
       <c r="E108" s="16"/>
-      <c r="F108" s="18"/>
+      <c r="F108" s="16"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="16"/>
@@ -2405,7 +2448,7 @@
       <c r="C109" s="16"/>
       <c r="D109" s="16"/>
       <c r="E109" s="16"/>
-      <c r="F109" s="18"/>
+      <c r="F109" s="16"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="16"/>
@@ -2413,7 +2456,7 @@
       <c r="C110" s="16"/>
       <c r="D110" s="16"/>
       <c r="E110" s="16"/>
-      <c r="F110" s="18"/>
+      <c r="F110" s="16"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="16"/>
@@ -2421,7 +2464,7 @@
       <c r="C111" s="16"/>
       <c r="D111" s="16"/>
       <c r="E111" s="16"/>
-      <c r="F111" s="18"/>
+      <c r="F111" s="16"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="16"/>
@@ -2429,7 +2472,7 @@
       <c r="C112" s="16"/>
       <c r="D112" s="16"/>
       <c r="E112" s="16"/>
-      <c r="F112" s="18"/>
+      <c r="F112" s="16"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="16"/>
@@ -2437,7 +2480,7 @@
       <c r="C113" s="16"/>
       <c r="D113" s="16"/>
       <c r="E113" s="16"/>
-      <c r="F113" s="18"/>
+      <c r="F113" s="16"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="16"/>
@@ -2445,7 +2488,7 @@
       <c r="C114" s="16"/>
       <c r="D114" s="16"/>
       <c r="E114" s="16"/>
-      <c r="F114" s="18"/>
+      <c r="F114" s="16"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="16"/>
@@ -2453,7 +2496,7 @@
       <c r="C115" s="16"/>
       <c r="D115" s="16"/>
       <c r="E115" s="16"/>
-      <c r="F115" s="18"/>
+      <c r="F115" s="16"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="16"/>
@@ -2461,7 +2504,7 @@
       <c r="C116" s="16"/>
       <c r="D116" s="16"/>
       <c r="E116" s="16"/>
-      <c r="F116" s="18"/>
+      <c r="F116" s="16"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="16"/>
@@ -2469,7 +2512,7 @@
       <c r="C117" s="16"/>
       <c r="D117" s="16"/>
       <c r="E117" s="16"/>
-      <c r="F117" s="18"/>
+      <c r="F117" s="16"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="16"/>
@@ -2477,7 +2520,7 @@
       <c r="C118" s="16"/>
       <c r="D118" s="16"/>
       <c r="E118" s="16"/>
-      <c r="F118" s="18"/>
+      <c r="F118" s="16"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="16"/>
@@ -2485,7 +2528,7 @@
       <c r="C119" s="16"/>
       <c r="D119" s="16"/>
       <c r="E119" s="16"/>
-      <c r="F119" s="18"/>
+      <c r="F119" s="16"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="16"/>
@@ -2493,7 +2536,7 @@
       <c r="C120" s="16"/>
       <c r="D120" s="16"/>
       <c r="E120" s="16"/>
-      <c r="F120" s="18"/>
+      <c r="F120" s="16"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="16"/>
@@ -2501,7 +2544,7 @@
       <c r="C121" s="16"/>
       <c r="D121" s="16"/>
       <c r="E121" s="16"/>
-      <c r="F121" s="18"/>
+      <c r="F121" s="16"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="16"/>
@@ -2509,7 +2552,7 @@
       <c r="C122" s="16"/>
       <c r="D122" s="16"/>
       <c r="E122" s="16"/>
-      <c r="F122" s="18"/>
+      <c r="F122" s="16"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="16"/>
@@ -2517,7 +2560,7 @@
       <c r="C123" s="16"/>
       <c r="D123" s="16"/>
       <c r="E123" s="16"/>
-      <c r="F123" s="18"/>
+      <c r="F123" s="16"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="16"/>
@@ -2525,7 +2568,7 @@
       <c r="C124" s="16"/>
       <c r="D124" s="16"/>
       <c r="E124" s="16"/>
-      <c r="F124" s="18"/>
+      <c r="F124" s="16"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="16"/>
@@ -2533,7 +2576,7 @@
       <c r="C125" s="16"/>
       <c r="D125" s="16"/>
       <c r="E125" s="16"/>
-      <c r="F125" s="18"/>
+      <c r="F125" s="16"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="16"/>
@@ -2541,7 +2584,7 @@
       <c r="C126" s="16"/>
       <c r="D126" s="16"/>
       <c r="E126" s="16"/>
-      <c r="F126" s="18"/>
+      <c r="F126" s="16"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="16"/>
@@ -2549,7 +2592,7 @@
       <c r="C127" s="16"/>
       <c r="D127" s="16"/>
       <c r="E127" s="16"/>
-      <c r="F127" s="18"/>
+      <c r="F127" s="16"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="16"/>
@@ -2557,7 +2600,7 @@
       <c r="C128" s="16"/>
       <c r="D128" s="16"/>
       <c r="E128" s="16"/>
-      <c r="F128" s="18"/>
+      <c r="F128" s="16"/>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="16"/>
@@ -2565,7 +2608,7 @@
       <c r="C129" s="16"/>
       <c r="D129" s="16"/>
       <c r="E129" s="16"/>
-      <c r="F129" s="18"/>
+      <c r="F129" s="16"/>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="16"/>
@@ -2573,7 +2616,7 @@
       <c r="C130" s="16"/>
       <c r="D130" s="16"/>
       <c r="E130" s="16"/>
-      <c r="F130" s="18"/>
+      <c r="F130" s="16"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="16"/>
@@ -2581,7 +2624,7 @@
       <c r="C131" s="16"/>
       <c r="D131" s="16"/>
       <c r="E131" s="16"/>
-      <c r="F131" s="18"/>
+      <c r="F131" s="16"/>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="16"/>
@@ -2589,7 +2632,7 @@
       <c r="C132" s="16"/>
       <c r="D132" s="16"/>
       <c r="E132" s="16"/>
-      <c r="F132" s="18"/>
+      <c r="F132" s="16"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="16"/>
@@ -2597,7 +2640,7 @@
       <c r="C133" s="16"/>
       <c r="D133" s="16"/>
       <c r="E133" s="16"/>
-      <c r="F133" s="18"/>
+      <c r="F133" s="16"/>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="16"/>
@@ -2605,7 +2648,7 @@
       <c r="C134" s="16"/>
       <c r="D134" s="16"/>
       <c r="E134" s="16"/>
-      <c r="F134" s="18"/>
+      <c r="F134" s="16"/>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="16"/>
@@ -2613,7 +2656,7 @@
       <c r="C135" s="16"/>
       <c r="D135" s="16"/>
       <c r="E135" s="16"/>
-      <c r="F135" s="18"/>
+      <c r="F135" s="16"/>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="16"/>
@@ -2621,7 +2664,7 @@
       <c r="C136" s="16"/>
       <c r="D136" s="16"/>
       <c r="E136" s="16"/>
-      <c r="F136" s="18"/>
+      <c r="F136" s="16"/>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="16"/>
@@ -2629,7 +2672,7 @@
       <c r="C137" s="16"/>
       <c r="D137" s="16"/>
       <c r="E137" s="16"/>
-      <c r="F137" s="18"/>
+      <c r="F137" s="16"/>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="16"/>
@@ -2637,7 +2680,7 @@
       <c r="C138" s="16"/>
       <c r="D138" s="16"/>
       <c r="E138" s="16"/>
-      <c r="F138" s="18"/>
+      <c r="F138" s="16"/>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="16"/>
@@ -2645,7 +2688,7 @@
       <c r="C139" s="16"/>
       <c r="D139" s="16"/>
       <c r="E139" s="16"/>
-      <c r="F139" s="18"/>
+      <c r="F139" s="16"/>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="16"/>
@@ -2653,7 +2696,7 @@
       <c r="C140" s="16"/>
       <c r="D140" s="16"/>
       <c r="E140" s="16"/>
-      <c r="F140" s="18"/>
+      <c r="F140" s="16"/>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="16"/>
@@ -2661,7 +2704,7 @@
       <c r="C141" s="16"/>
       <c r="D141" s="16"/>
       <c r="E141" s="16"/>
-      <c r="F141" s="18"/>
+      <c r="F141" s="16"/>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="16"/>
@@ -2669,7 +2712,7 @@
       <c r="C142" s="16"/>
       <c r="D142" s="16"/>
       <c r="E142" s="16"/>
-      <c r="F142" s="18"/>
+      <c r="F142" s="16"/>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="16"/>
@@ -2677,7 +2720,7 @@
       <c r="C143" s="16"/>
       <c r="D143" s="16"/>
       <c r="E143" s="16"/>
-      <c r="F143" s="18"/>
+      <c r="F143" s="16"/>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="16"/>
@@ -2685,7 +2728,7 @@
       <c r="C144" s="16"/>
       <c r="D144" s="16"/>
       <c r="E144" s="16"/>
-      <c r="F144" s="18"/>
+      <c r="F144" s="16"/>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="16"/>
@@ -2693,7 +2736,7 @@
       <c r="C145" s="16"/>
       <c r="D145" s="16"/>
       <c r="E145" s="16"/>
-      <c r="F145" s="18"/>
+      <c r="F145" s="16"/>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="16"/>
@@ -2701,7 +2744,7 @@
       <c r="C146" s="16"/>
       <c r="D146" s="16"/>
       <c r="E146" s="16"/>
-      <c r="F146" s="18"/>
+      <c r="F146" s="16"/>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="16"/>
@@ -2709,7 +2752,7 @@
       <c r="C147" s="16"/>
       <c r="D147" s="16"/>
       <c r="E147" s="16"/>
-      <c r="F147" s="18"/>
+      <c r="F147" s="16"/>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="16"/>
@@ -2717,7 +2760,7 @@
       <c r="C148" s="16"/>
       <c r="D148" s="16"/>
       <c r="E148" s="16"/>
-      <c r="F148" s="18"/>
+      <c r="F148" s="16"/>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="16"/>
@@ -2725,7 +2768,7 @@
       <c r="C149" s="16"/>
       <c r="D149" s="16"/>
       <c r="E149" s="16"/>
-      <c r="F149" s="18"/>
+      <c r="F149" s="16"/>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="16"/>
@@ -2733,7 +2776,7 @@
       <c r="C150" s="16"/>
       <c r="D150" s="16"/>
       <c r="E150" s="16"/>
-      <c r="F150" s="18"/>
+      <c r="F150" s="16"/>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="16"/>
@@ -2741,7 +2784,7 @@
       <c r="C151" s="16"/>
       <c r="D151" s="16"/>
       <c r="E151" s="16"/>
-      <c r="F151" s="18"/>
+      <c r="F151" s="16"/>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="16"/>
@@ -2749,7 +2792,7 @@
       <c r="C152" s="16"/>
       <c r="D152" s="16"/>
       <c r="E152" s="16"/>
-      <c r="F152" s="18"/>
+      <c r="F152" s="16"/>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="16"/>
@@ -2757,7 +2800,7 @@
       <c r="C153" s="16"/>
       <c r="D153" s="16"/>
       <c r="E153" s="16"/>
-      <c r="F153" s="18"/>
+      <c r="F153" s="16"/>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="16"/>
@@ -2765,7 +2808,7 @@
       <c r="C154" s="16"/>
       <c r="D154" s="16"/>
       <c r="E154" s="16"/>
-      <c r="F154" s="18"/>
+      <c r="F154" s="16"/>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="16"/>
@@ -2773,7 +2816,7 @@
       <c r="C155" s="16"/>
       <c r="D155" s="16"/>
       <c r="E155" s="16"/>
-      <c r="F155" s="18"/>
+      <c r="F155" s="16"/>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="16"/>
@@ -2781,7 +2824,7 @@
       <c r="C156" s="16"/>
       <c r="D156" s="16"/>
       <c r="E156" s="16"/>
-      <c r="F156" s="18"/>
+      <c r="F156" s="16"/>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="16"/>
@@ -2789,7 +2832,7 @@
       <c r="C157" s="16"/>
       <c r="D157" s="16"/>
       <c r="E157" s="16"/>
-      <c r="F157" s="18"/>
+      <c r="F157" s="16"/>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="16"/>
@@ -2797,7 +2840,7 @@
       <c r="C158" s="16"/>
       <c r="D158" s="16"/>
       <c r="E158" s="16"/>
-      <c r="F158" s="18"/>
+      <c r="F158" s="16"/>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="16"/>
@@ -2805,7 +2848,7 @@
       <c r="C159" s="16"/>
       <c r="D159" s="16"/>
       <c r="E159" s="16"/>
-      <c r="F159" s="18"/>
+      <c r="F159" s="16"/>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="16"/>
@@ -2813,7 +2856,7 @@
       <c r="C160" s="16"/>
       <c r="D160" s="16"/>
       <c r="E160" s="16"/>
-      <c r="F160" s="18"/>
+      <c r="F160" s="16"/>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="16"/>
@@ -2821,7 +2864,7 @@
       <c r="C161" s="16"/>
       <c r="D161" s="16"/>
       <c r="E161" s="16"/>
-      <c r="F161" s="18"/>
+      <c r="F161" s="16"/>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="16"/>
@@ -2829,7 +2872,7 @@
       <c r="C162" s="16"/>
       <c r="D162" s="16"/>
       <c r="E162" s="16"/>
-      <c r="F162" s="18"/>
+      <c r="F162" s="16"/>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="16"/>
@@ -2837,7 +2880,7 @@
       <c r="C163" s="16"/>
       <c r="D163" s="16"/>
       <c r="E163" s="16"/>
-      <c r="F163" s="18"/>
+      <c r="F163" s="16"/>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="16"/>
@@ -2845,7 +2888,7 @@
       <c r="C164" s="16"/>
       <c r="D164" s="16"/>
       <c r="E164" s="16"/>
-      <c r="F164" s="18"/>
+      <c r="F164" s="16"/>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="16"/>
@@ -2853,7 +2896,7 @@
       <c r="C165" s="16"/>
       <c r="D165" s="16"/>
       <c r="E165" s="16"/>
-      <c r="F165" s="18"/>
+      <c r="F165" s="16"/>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="16"/>
@@ -2861,7 +2904,7 @@
       <c r="C166" s="16"/>
       <c r="D166" s="16"/>
       <c r="E166" s="16"/>
-      <c r="F166" s="18"/>
+      <c r="F166" s="16"/>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="16"/>
@@ -2869,7 +2912,7 @@
       <c r="C167" s="16"/>
       <c r="D167" s="16"/>
       <c r="E167" s="16"/>
-      <c r="F167" s="18"/>
+      <c r="F167" s="16"/>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="16"/>
@@ -2877,7 +2920,7 @@
       <c r="C168" s="16"/>
       <c r="D168" s="16"/>
       <c r="E168" s="16"/>
-      <c r="F168" s="18"/>
+      <c r="F168" s="16"/>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="16"/>
@@ -2885,7 +2928,7 @@
       <c r="C169" s="16"/>
       <c r="D169" s="16"/>
       <c r="E169" s="16"/>
-      <c r="F169" s="18"/>
+      <c r="F169" s="16"/>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="16"/>
@@ -2893,7 +2936,7 @@
       <c r="C170" s="16"/>
       <c r="D170" s="16"/>
       <c r="E170" s="16"/>
-      <c r="F170" s="18"/>
+      <c r="F170" s="16"/>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="16"/>
@@ -2901,7 +2944,7 @@
       <c r="C171" s="16"/>
       <c r="D171" s="16"/>
       <c r="E171" s="16"/>
-      <c r="F171" s="18"/>
+      <c r="F171" s="16"/>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="16"/>
@@ -2909,7 +2952,7 @@
       <c r="C172" s="16"/>
       <c r="D172" s="16"/>
       <c r="E172" s="16"/>
-      <c r="F172" s="18"/>
+      <c r="F172" s="16"/>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="16"/>
@@ -2917,7 +2960,7 @@
       <c r="C173" s="16"/>
       <c r="D173" s="16"/>
       <c r="E173" s="16"/>
-      <c r="F173" s="18"/>
+      <c r="F173" s="16"/>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="16"/>
@@ -2925,7 +2968,7 @@
       <c r="C174" s="16"/>
       <c r="D174" s="16"/>
       <c r="E174" s="16"/>
-      <c r="F174" s="18"/>
+      <c r="F174" s="16"/>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="16"/>
@@ -2933,7 +2976,7 @@
       <c r="C175" s="16"/>
       <c r="D175" s="16"/>
       <c r="E175" s="16"/>
-      <c r="F175" s="18"/>
+      <c r="F175" s="16"/>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="16"/>
@@ -2941,7 +2984,7 @@
       <c r="C176" s="16"/>
       <c r="D176" s="16"/>
       <c r="E176" s="16"/>
-      <c r="F176" s="18"/>
+      <c r="F176" s="16"/>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="16"/>
@@ -2949,7 +2992,7 @@
       <c r="C177" s="16"/>
       <c r="D177" s="16"/>
       <c r="E177" s="16"/>
-      <c r="F177" s="18"/>
+      <c r="F177" s="16"/>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="16"/>
@@ -2957,7 +3000,7 @@
       <c r="C178" s="16"/>
       <c r="D178" s="16"/>
       <c r="E178" s="16"/>
-      <c r="F178" s="18"/>
+      <c r="F178" s="16"/>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="16"/>
@@ -2965,7 +3008,7 @@
       <c r="C179" s="16"/>
       <c r="D179" s="16"/>
       <c r="E179" s="16"/>
-      <c r="F179" s="18"/>
+      <c r="F179" s="16"/>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="16"/>
@@ -2973,7 +3016,7 @@
       <c r="C180" s="16"/>
       <c r="D180" s="16"/>
       <c r="E180" s="16"/>
-      <c r="F180" s="18"/>
+      <c r="F180" s="16"/>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="16"/>
@@ -2981,7 +3024,7 @@
       <c r="C181" s="16"/>
       <c r="D181" s="16"/>
       <c r="E181" s="16"/>
-      <c r="F181" s="18"/>
+      <c r="F181" s="16"/>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="16"/>
@@ -2989,7 +3032,7 @@
       <c r="C182" s="16"/>
       <c r="D182" s="16"/>
       <c r="E182" s="16"/>
-      <c r="F182" s="18"/>
+      <c r="F182" s="16"/>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="16"/>
@@ -2997,7 +3040,7 @@
       <c r="C183" s="16"/>
       <c r="D183" s="16"/>
       <c r="E183" s="16"/>
-      <c r="F183" s="18"/>
+      <c r="F183" s="16"/>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="16"/>
@@ -3005,7 +3048,7 @@
       <c r="C184" s="16"/>
       <c r="D184" s="16"/>
       <c r="E184" s="16"/>
-      <c r="F184" s="18"/>
+      <c r="F184" s="16"/>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="16"/>
@@ -3013,7 +3056,7 @@
       <c r="C185" s="16"/>
       <c r="D185" s="16"/>
       <c r="E185" s="16"/>
-      <c r="F185" s="18"/>
+      <c r="F185" s="16"/>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" s="16"/>
@@ -3021,7 +3064,7 @@
       <c r="C186" s="16"/>
       <c r="D186" s="16"/>
       <c r="E186" s="16"/>
-      <c r="F186" s="18"/>
+      <c r="F186" s="16"/>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="16"/>
@@ -3029,7 +3072,7 @@
       <c r="C187" s="16"/>
       <c r="D187" s="16"/>
       <c r="E187" s="16"/>
-      <c r="F187" s="18"/>
+      <c r="F187" s="16"/>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" s="16"/>
@@ -3037,7 +3080,7 @@
       <c r="C188" s="16"/>
       <c r="D188" s="16"/>
       <c r="E188" s="16"/>
-      <c r="F188" s="18"/>
+      <c r="F188" s="16"/>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" s="16"/>
@@ -3045,7 +3088,7 @@
       <c r="C189" s="16"/>
       <c r="D189" s="16"/>
       <c r="E189" s="16"/>
-      <c r="F189" s="18"/>
+      <c r="F189" s="16"/>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" s="16"/>
@@ -3053,7 +3096,7 @@
       <c r="C190" s="16"/>
       <c r="D190" s="16"/>
       <c r="E190" s="16"/>
-      <c r="F190" s="18"/>
+      <c r="F190" s="16"/>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" s="16"/>
@@ -3061,7 +3104,7 @@
       <c r="C191" s="16"/>
       <c r="D191" s="16"/>
       <c r="E191" s="16"/>
-      <c r="F191" s="18"/>
+      <c r="F191" s="16"/>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" s="16"/>
@@ -3069,7 +3112,7 @@
       <c r="C192" s="16"/>
       <c r="D192" s="16"/>
       <c r="E192" s="16"/>
-      <c r="F192" s="18"/>
+      <c r="F192" s="16"/>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" s="16"/>
@@ -3077,7 +3120,7 @@
       <c r="C193" s="16"/>
       <c r="D193" s="16"/>
       <c r="E193" s="16"/>
-      <c r="F193" s="18"/>
+      <c r="F193" s="16"/>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" s="16"/>
@@ -3085,7 +3128,7 @@
       <c r="C194" s="16"/>
       <c r="D194" s="16"/>
       <c r="E194" s="16"/>
-      <c r="F194" s="18"/>
+      <c r="F194" s="16"/>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" s="16"/>
@@ -3093,7 +3136,7 @@
       <c r="C195" s="16"/>
       <c r="D195" s="16"/>
       <c r="E195" s="16"/>
-      <c r="F195" s="18"/>
+      <c r="F195" s="16"/>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" s="16"/>
@@ -3101,7 +3144,7 @@
       <c r="C196" s="16"/>
       <c r="D196" s="16"/>
       <c r="E196" s="16"/>
-      <c r="F196" s="18"/>
+      <c r="F196" s="16"/>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" s="16"/>
@@ -3109,7 +3152,7 @@
       <c r="C197" s="16"/>
       <c r="D197" s="16"/>
       <c r="E197" s="16"/>
-      <c r="F197" s="18"/>
+      <c r="F197" s="16"/>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" s="16"/>
@@ -3117,7 +3160,7 @@
       <c r="C198" s="16"/>
       <c r="D198" s="16"/>
       <c r="E198" s="16"/>
-      <c r="F198" s="18"/>
+      <c r="F198" s="16"/>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="16"/>
@@ -3125,7 +3168,7 @@
       <c r="C199" s="16"/>
       <c r="D199" s="16"/>
       <c r="E199" s="16"/>
-      <c r="F199" s="18"/>
+      <c r="F199" s="16"/>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" s="16"/>
@@ -3133,7 +3176,7 @@
       <c r="C200" s="16"/>
       <c r="D200" s="16"/>
       <c r="E200" s="16"/>
-      <c r="F200" s="18"/>
+      <c r="F200" s="16"/>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" s="16"/>
@@ -3141,7 +3184,7 @@
       <c r="C201" s="16"/>
       <c r="D201" s="16"/>
       <c r="E201" s="16"/>
-      <c r="F201" s="18"/>
+      <c r="F201" s="16"/>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" s="16"/>
@@ -3149,7 +3192,7 @@
       <c r="C202" s="16"/>
       <c r="D202" s="16"/>
       <c r="E202" s="16"/>
-      <c r="F202" s="18"/>
+      <c r="F202" s="16"/>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" s="16"/>
@@ -3157,7 +3200,7 @@
       <c r="C203" s="16"/>
       <c r="D203" s="16"/>
       <c r="E203" s="16"/>
-      <c r="F203" s="18"/>
+      <c r="F203" s="16"/>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" s="16"/>
@@ -3165,7 +3208,7 @@
       <c r="C204" s="16"/>
       <c r="D204" s="16"/>
       <c r="E204" s="16"/>
-      <c r="F204" s="18"/>
+      <c r="F204" s="16"/>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" s="16"/>
@@ -3173,7 +3216,7 @@
       <c r="C205" s="16"/>
       <c r="D205" s="16"/>
       <c r="E205" s="16"/>
-      <c r="F205" s="18"/>
+      <c r="F205" s="16"/>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" s="16"/>
@@ -3181,7 +3224,7 @@
       <c r="C206" s="16"/>
       <c r="D206" s="16"/>
       <c r="E206" s="16"/>
-      <c r="F206" s="18"/>
+      <c r="F206" s="16"/>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" s="16"/>
@@ -3189,7 +3232,7 @@
       <c r="C207" s="16"/>
       <c r="D207" s="16"/>
       <c r="E207" s="16"/>
-      <c r="F207" s="18"/>
+      <c r="F207" s="16"/>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" s="16"/>
@@ -3197,7 +3240,7 @@
       <c r="C208" s="16"/>
       <c r="D208" s="16"/>
       <c r="E208" s="16"/>
-      <c r="F208" s="18"/>
+      <c r="F208" s="16"/>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" s="16"/>
@@ -3205,7 +3248,7 @@
       <c r="C209" s="16"/>
       <c r="D209" s="16"/>
       <c r="E209" s="16"/>
-      <c r="F209" s="18"/>
+      <c r="F209" s="16"/>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" s="16"/>
@@ -3213,7 +3256,7 @@
       <c r="C210" s="16"/>
       <c r="D210" s="16"/>
       <c r="E210" s="16"/>
-      <c r="F210" s="18"/>
+      <c r="F210" s="16"/>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" s="16"/>
@@ -3221,7 +3264,7 @@
       <c r="C211" s="16"/>
       <c r="D211" s="16"/>
       <c r="E211" s="16"/>
-      <c r="F211" s="18"/>
+      <c r="F211" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>

--- a/APositive.xlsx
+++ b/APositive.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Achu\EH\Git\Hridyasparsham\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E9AD99-59E9-4AAD-8103-AAA273399C49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28F203DA-DFD5-4E1B-8728-6FDE7EBF3FF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{504CD3D7-3C5E-42A8-B35F-975F1BB80D5F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="101">
   <si>
     <t>Sl No.</t>
   </si>
@@ -271,6 +271,75 @@
   </si>
   <si>
     <t>TWINKLE ANDREW</t>
+  </si>
+  <si>
+    <t>AMY SUSAN BABU</t>
+  </si>
+  <si>
+    <t>CHRISTO ANISH</t>
+  </si>
+  <si>
+    <t>CYRIL JOHN</t>
+  </si>
+  <si>
+    <t>DONI REJI</t>
+  </si>
+  <si>
+    <t>ELIJAH</t>
+  </si>
+  <si>
+    <t>EZZA JOHNSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GORJI ANITHA </t>
+  </si>
+  <si>
+    <t>IRENE MARIAM SHAJI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JAISON J </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JANWINSAM M W </t>
+  </si>
+  <si>
+    <t>JOE MATHEW</t>
+  </si>
+  <si>
+    <t>LIYA ABRAHAM</t>
+  </si>
+  <si>
+    <t>MARIA PHILIP</t>
+  </si>
+  <si>
+    <t>MEERA RAJEEV</t>
+  </si>
+  <si>
+    <t>MERIN SUSAN PANICKER</t>
+  </si>
+  <si>
+    <t>MUHAMMAD THWALHA</t>
+  </si>
+  <si>
+    <t>NANDITHA MANOJ</t>
+  </si>
+  <si>
+    <t>NEHA KS</t>
+  </si>
+  <si>
+    <t>REUBEN GEORGE ABRAHAM</t>
+  </si>
+  <si>
+    <t>RINOLD JOSE P</t>
+  </si>
+  <si>
+    <t>SAFNA N</t>
+  </si>
+  <si>
+    <t>SANDRA KS</t>
+  </si>
+  <si>
+    <t>2021 MBBS</t>
   </si>
 </sst>
 </file>
@@ -468,7 +537,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -526,6 +595,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -861,10 +933,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38A89F49-A16D-44C4-953A-25A0144156A7}">
-  <dimension ref="A1:F211"/>
+  <dimension ref="A1:F212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -875,7 +947,10 @@
     <col min="4" max="4" width="12.109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="27.21875" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="1"/>
+    <col min="7" max="7" width="18" style="1" customWidth="1"/>
+    <col min="8" max="10" width="8.88671875" style="1"/>
+    <col min="11" max="12" width="8.88671875" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -1638,407 +1713,385 @@
       <c r="A43" s="11">
         <v>42</v>
       </c>
-      <c r="B43" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C43" s="11">
-        <v>8891063704</v>
+      <c r="B43" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C43" s="20">
+        <v>9207126547</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="E43" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F43" s="16"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="11">
         <v>43</v>
       </c>
-      <c r="B44" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C44" s="11">
-        <v>8890106808</v>
+      <c r="B44" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C44" s="20">
+        <v>9961121549</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="E44" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F44" s="16"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="11">
         <v>44</v>
       </c>
-      <c r="B45" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C45" s="11">
-        <v>8281614195</v>
+      <c r="B45" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C45" s="20">
+        <v>8139878897</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="E45" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F45" s="16"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="11">
         <v>45</v>
       </c>
-      <c r="B46" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C46" s="11">
-        <v>7034115532</v>
+      <c r="B46" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C46" s="20">
+        <v>7306299613</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="E46" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F46" s="16"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="11">
         <v>46</v>
       </c>
-      <c r="B47" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C47" s="11">
-        <v>8714287235</v>
+      <c r="B47" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C47" s="20">
+        <v>7012235025</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="E47" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F47" s="16"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="11">
         <v>47</v>
       </c>
-      <c r="B48" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C48" s="11">
-        <v>8590227895</v>
+      <c r="B48" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C48" s="20">
+        <v>9400995544</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="E48" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F48" s="16"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="11">
         <v>48</v>
       </c>
-      <c r="B49" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="C49" s="11">
-        <v>8547970599</v>
+      <c r="B49" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C49" s="20">
+        <v>9398735897</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="E49" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F49" s="16"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="11">
         <v>49</v>
       </c>
-      <c r="B50" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C50" s="11">
-        <v>9567390363</v>
+      <c r="B50" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C50" s="20">
+        <v>8075773648</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="E50" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F50" s="16"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="11">
         <v>50</v>
       </c>
-      <c r="B51" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C51" s="11">
-        <v>9074020116</v>
+      <c r="B51" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C51" s="20">
+        <v>8943470147</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="E51" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F51" s="16"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="11">
         <v>51</v>
       </c>
-      <c r="B52" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C52" s="11">
-        <v>8129400870</v>
+      <c r="B52" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C52" s="20">
+        <v>8943934051</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="E52" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F52" s="16"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="11">
         <v>52</v>
       </c>
-      <c r="B53" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C53" s="11">
-        <v>9526235729</v>
+      <c r="B53" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C53" s="20">
+        <v>7907849561</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="E53" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F53" s="16"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="11">
         <v>53</v>
       </c>
-      <c r="B54" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C54" s="11">
-        <v>9072478888</v>
+      <c r="B54" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C54" s="20">
+        <v>9495960284</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="E54" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F54" s="16"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="11">
         <v>54</v>
       </c>
-      <c r="B55" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C55" s="11">
-        <v>6238970603</v>
+      <c r="B55" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C55" s="20">
+        <v>9606587515</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="E55" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F55" s="16"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="11">
         <v>55</v>
       </c>
-      <c r="B56" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C56" s="11">
-        <v>7306247554</v>
+      <c r="B56" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C56" s="20">
+        <v>9061814973</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="E56" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F56" s="16"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="11">
         <v>56</v>
       </c>
-      <c r="B57" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="C57" s="11">
-        <v>9495689382</v>
+      <c r="B57" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C57" s="20">
+        <v>9895901383</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="E57" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F57" s="16"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="11">
         <v>57</v>
       </c>
-      <c r="B58" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="C58" s="11">
-        <v>7593868503</v>
+      <c r="B58" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C58" s="20">
+        <v>8113982045</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="E58" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F58" s="16"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="11">
         <v>58</v>
       </c>
-      <c r="B59" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C59" s="11">
-        <v>6238597362</v>
+      <c r="B59" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C59" s="20">
+        <v>8129302087</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="E59" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F59" s="16"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="11">
         <v>59</v>
       </c>
-      <c r="B60" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C60" s="11">
-        <v>8714443175</v>
+      <c r="B60" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C60" s="20">
+        <v>9778245384</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="E60" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F60" s="16"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="11">
         <v>60</v>
       </c>
-      <c r="B61" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C61" s="11">
-        <v>9446041692</v>
+      <c r="B61" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C61" s="20">
+        <v>7907042179</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="E61" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F61" s="16"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="11">
         <v>61</v>
       </c>
-      <c r="B62" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C62" s="11">
-        <v>9447456588</v>
+      <c r="B62" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C62" s="20">
+        <v>8943905040</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="E62" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F62" s="16"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="11">
         <v>62</v>
       </c>
-      <c r="B63" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="C63" s="11">
-        <v>8590997980</v>
+      <c r="B63" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C63" s="20">
+        <v>9072223424</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="E63" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F63" s="16"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="11">
         <v>63</v>
       </c>
-      <c r="B64" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="C64" s="11">
-        <v>8078521701</v>
+      <c r="B64" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C64" s="20">
+        <v>9744529672</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="E64" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F64" s="16"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="11">
         <v>64</v>
       </c>
       <c r="B65" s="19" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="C65" s="11">
-        <v>9746143411</v>
+        <v>8891063704</v>
       </c>
       <c r="D65" s="11" t="s">
         <v>23</v>
@@ -2053,10 +2106,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="19" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="C66" s="11">
-        <v>9567074475</v>
+        <v>8890106808</v>
       </c>
       <c r="D66" s="11" t="s">
         <v>23</v>
@@ -2071,10 +2124,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="19" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="C67" s="11">
-        <v>7569444700</v>
+        <v>8281614195</v>
       </c>
       <c r="D67" s="11" t="s">
         <v>23</v>
@@ -2089,10 +2142,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="19" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="C68" s="11">
-        <v>9497550760</v>
+        <v>7034115532</v>
       </c>
       <c r="D68" s="11" t="s">
         <v>23</v>
@@ -2107,10 +2160,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="19" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="C69" s="11">
-        <v>9037358727</v>
+        <v>8714287235</v>
       </c>
       <c r="D69" s="11" t="s">
         <v>23</v>
@@ -2125,10 +2178,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="19" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="C70" s="11">
-        <v>8929192979</v>
+        <v>8590227895</v>
       </c>
       <c r="D70" s="11" t="s">
         <v>23</v>
@@ -2139,179 +2192,399 @@
       <c r="F70" s="16"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" s="16"/>
-      <c r="B71" s="16"/>
-      <c r="C71" s="16"/>
-      <c r="D71" s="16"/>
-      <c r="E71" s="16"/>
+      <c r="A71" s="11">
+        <v>70</v>
+      </c>
+      <c r="B71" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C71" s="11">
+        <v>8547970599</v>
+      </c>
+      <c r="D71" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E71" s="11" t="s">
+        <v>4</v>
+      </c>
       <c r="F71" s="16"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A72" s="16"/>
-      <c r="B72" s="16"/>
-      <c r="C72" s="16"/>
-      <c r="D72" s="16"/>
-      <c r="E72" s="16"/>
+      <c r="A72" s="11">
+        <v>71</v>
+      </c>
+      <c r="B72" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C72" s="11">
+        <v>9567390363</v>
+      </c>
+      <c r="D72" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E72" s="11" t="s">
+        <v>4</v>
+      </c>
       <c r="F72" s="16"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A73" s="16"/>
-      <c r="B73" s="16"/>
-      <c r="C73" s="16"/>
-      <c r="D73" s="16"/>
-      <c r="E73" s="16"/>
+      <c r="A73" s="11">
+        <v>72</v>
+      </c>
+      <c r="B73" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C73" s="11">
+        <v>9074020116</v>
+      </c>
+      <c r="D73" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E73" s="11" t="s">
+        <v>4</v>
+      </c>
       <c r="F73" s="16"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" s="16"/>
-      <c r="B74" s="16"/>
-      <c r="C74" s="16"/>
-      <c r="D74" s="16"/>
-      <c r="E74" s="16"/>
+      <c r="A74" s="11">
+        <v>73</v>
+      </c>
+      <c r="B74" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C74" s="11">
+        <v>8129400870</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>4</v>
+      </c>
       <c r="F74" s="16"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" s="16"/>
-      <c r="B75" s="16"/>
-      <c r="C75" s="16"/>
-      <c r="D75" s="16"/>
-      <c r="E75" s="16"/>
+      <c r="A75" s="11">
+        <v>74</v>
+      </c>
+      <c r="B75" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C75" s="11">
+        <v>9526235729</v>
+      </c>
+      <c r="D75" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E75" s="11" t="s">
+        <v>4</v>
+      </c>
       <c r="F75" s="16"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76" s="16"/>
-      <c r="B76" s="16"/>
-      <c r="C76" s="16"/>
-      <c r="D76" s="16"/>
-      <c r="E76" s="16"/>
+      <c r="A76" s="11">
+        <v>75</v>
+      </c>
+      <c r="B76" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C76" s="11">
+        <v>9072478888</v>
+      </c>
+      <c r="D76" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E76" s="11" t="s">
+        <v>4</v>
+      </c>
       <c r="F76" s="16"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A77" s="16"/>
-      <c r="B77" s="16"/>
-      <c r="C77" s="16"/>
-      <c r="D77" s="16"/>
-      <c r="E77" s="16"/>
+      <c r="A77" s="11">
+        <v>76</v>
+      </c>
+      <c r="B77" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C77" s="11">
+        <v>6238970603</v>
+      </c>
+      <c r="D77" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E77" s="11" t="s">
+        <v>4</v>
+      </c>
       <c r="F77" s="16"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" s="16"/>
-      <c r="B78" s="16"/>
-      <c r="C78" s="16"/>
-      <c r="D78" s="16"/>
-      <c r="E78" s="16"/>
+      <c r="A78" s="11">
+        <v>77</v>
+      </c>
+      <c r="B78" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C78" s="11">
+        <v>7306247554</v>
+      </c>
+      <c r="D78" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E78" s="11" t="s">
+        <v>4</v>
+      </c>
       <c r="F78" s="16"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" s="16"/>
-      <c r="B79" s="16"/>
-      <c r="C79" s="16"/>
-      <c r="D79" s="16"/>
-      <c r="E79" s="16"/>
+      <c r="A79" s="11">
+        <v>78</v>
+      </c>
+      <c r="B79" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C79" s="11">
+        <v>9495689382</v>
+      </c>
+      <c r="D79" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E79" s="11" t="s">
+        <v>4</v>
+      </c>
       <c r="F79" s="16"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A80" s="16"/>
-      <c r="B80" s="16"/>
-      <c r="C80" s="16"/>
-      <c r="D80" s="16"/>
-      <c r="E80" s="16"/>
+      <c r="A80" s="11">
+        <v>79</v>
+      </c>
+      <c r="B80" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C80" s="11">
+        <v>7593868503</v>
+      </c>
+      <c r="D80" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E80" s="11" t="s">
+        <v>4</v>
+      </c>
       <c r="F80" s="16"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A81" s="16"/>
-      <c r="B81" s="16"/>
-      <c r="C81" s="16"/>
-      <c r="D81" s="16"/>
-      <c r="E81" s="16"/>
+      <c r="A81" s="11">
+        <v>80</v>
+      </c>
+      <c r="B81" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C81" s="11">
+        <v>6238597362</v>
+      </c>
+      <c r="D81" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E81" s="11" t="s">
+        <v>4</v>
+      </c>
       <c r="F81" s="16"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="16"/>
-      <c r="B82" s="16"/>
-      <c r="C82" s="16"/>
-      <c r="D82" s="16"/>
-      <c r="E82" s="16"/>
+      <c r="A82" s="11">
+        <v>81</v>
+      </c>
+      <c r="B82" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C82" s="11">
+        <v>8714443175</v>
+      </c>
+      <c r="D82" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E82" s="11" t="s">
+        <v>4</v>
+      </c>
       <c r="F82" s="16"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A83" s="16"/>
-      <c r="B83" s="16"/>
-      <c r="C83" s="16"/>
-      <c r="D83" s="16"/>
-      <c r="E83" s="16"/>
+      <c r="A83" s="11">
+        <v>82</v>
+      </c>
+      <c r="B83" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C83" s="11">
+        <v>9446041692</v>
+      </c>
+      <c r="D83" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E83" s="11" t="s">
+        <v>4</v>
+      </c>
       <c r="F83" s="16"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A84" s="16"/>
-      <c r="B84" s="16"/>
-      <c r="C84" s="16"/>
-      <c r="D84" s="16"/>
-      <c r="E84" s="16"/>
+      <c r="A84" s="11">
+        <v>83</v>
+      </c>
+      <c r="B84" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C84" s="11">
+        <v>9447456588</v>
+      </c>
+      <c r="D84" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E84" s="11" t="s">
+        <v>4</v>
+      </c>
       <c r="F84" s="16"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A85" s="16"/>
-      <c r="B85" s="16"/>
-      <c r="C85" s="16"/>
-      <c r="D85" s="16"/>
-      <c r="E85" s="16"/>
+      <c r="A85" s="11">
+        <v>84</v>
+      </c>
+      <c r="B85" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C85" s="11">
+        <v>8590997980</v>
+      </c>
+      <c r="D85" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E85" s="11" t="s">
+        <v>4</v>
+      </c>
       <c r="F85" s="16"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A86" s="16"/>
-      <c r="B86" s="16"/>
-      <c r="C86" s="16"/>
-      <c r="D86" s="16"/>
-      <c r="E86" s="16"/>
+      <c r="A86" s="11">
+        <v>85</v>
+      </c>
+      <c r="B86" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C86" s="11">
+        <v>8078521701</v>
+      </c>
+      <c r="D86" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E86" s="11" t="s">
+        <v>4</v>
+      </c>
       <c r="F86" s="16"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A87" s="16"/>
-      <c r="B87" s="16"/>
-      <c r="C87" s="16"/>
-      <c r="D87" s="16"/>
-      <c r="E87" s="16"/>
+      <c r="A87" s="11">
+        <v>86</v>
+      </c>
+      <c r="B87" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C87" s="11">
+        <v>9746143411</v>
+      </c>
+      <c r="D87" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E87" s="11" t="s">
+        <v>4</v>
+      </c>
       <c r="F87" s="16"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A88" s="16"/>
-      <c r="B88" s="16"/>
-      <c r="C88" s="16"/>
-      <c r="D88" s="16"/>
-      <c r="E88" s="16"/>
+      <c r="A88" s="11">
+        <v>87</v>
+      </c>
+      <c r="B88" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C88" s="11">
+        <v>9567074475</v>
+      </c>
+      <c r="D88" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E88" s="11" t="s">
+        <v>4</v>
+      </c>
       <c r="F88" s="16"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A89" s="16"/>
-      <c r="B89" s="16"/>
-      <c r="C89" s="16"/>
-      <c r="D89" s="16"/>
-      <c r="E89" s="16"/>
+      <c r="A89" s="11">
+        <v>88</v>
+      </c>
+      <c r="B89" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C89" s="11">
+        <v>7569444700</v>
+      </c>
+      <c r="D89" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E89" s="11" t="s">
+        <v>4</v>
+      </c>
       <c r="F89" s="16"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A90" s="16"/>
-      <c r="B90" s="16"/>
-      <c r="C90" s="16"/>
-      <c r="D90" s="16"/>
-      <c r="E90" s="16"/>
+      <c r="A90" s="11">
+        <v>89</v>
+      </c>
+      <c r="B90" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C90" s="11">
+        <v>9497550760</v>
+      </c>
+      <c r="D90" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E90" s="11" t="s">
+        <v>4</v>
+      </c>
       <c r="F90" s="16"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" s="16"/>
-      <c r="B91" s="16"/>
-      <c r="C91" s="16"/>
-      <c r="D91" s="16"/>
-      <c r="E91" s="16"/>
+      <c r="A91" s="11">
+        <v>90</v>
+      </c>
+      <c r="B91" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C91" s="11">
+        <v>9037358727</v>
+      </c>
+      <c r="D91" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E91" s="11" t="s">
+        <v>4</v>
+      </c>
       <c r="F91" s="16"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A92" s="16"/>
-      <c r="B92" s="16"/>
-      <c r="C92" s="16"/>
-      <c r="D92" s="16"/>
-      <c r="E92" s="16"/>
+      <c r="A92" s="11">
+        <v>91</v>
+      </c>
+      <c r="B92" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C92" s="11">
+        <v>8929192979</v>
+      </c>
+      <c r="D92" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E92" s="11" t="s">
+        <v>4</v>
+      </c>
       <c r="F92" s="16"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
@@ -3266,6 +3539,14 @@
       <c r="E211" s="16"/>
       <c r="F211" s="16"/>
     </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A212" s="16"/>
+      <c r="B212" s="16"/>
+      <c r="C212" s="16"/>
+      <c r="D212" s="16"/>
+      <c r="E212" s="16"/>
+      <c r="F212" s="16"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/APositive.xlsx
+++ b/APositive.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Achu\EH\Git\Hridyasparsham\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28F203DA-DFD5-4E1B-8728-6FDE7EBF3FF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{674EBAB1-5901-4553-B1D9-7027A7291A83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{504CD3D7-3C5E-42A8-B35F-975F1BB80D5F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="115">
   <si>
     <t>Sl No.</t>
   </si>
@@ -340,13 +340,55 @@
   </si>
   <si>
     <t>2021 MBBS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AKASH KUMAR SINGH </t>
+  </si>
+  <si>
+    <t>ANIL YADAV</t>
+  </si>
+  <si>
+    <t>ANJALY SEBASTIAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ANNAROSE </t>
+  </si>
+  <si>
+    <t>ANUPAMA S PATHIRICKAL</t>
+  </si>
+  <si>
+    <t>ASHTAMI D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAITLIN GABRIELLA NAZARETH </t>
+  </si>
+  <si>
+    <t>DONA JESS</t>
+  </si>
+  <si>
+    <t>HARRIET FRANCIS</t>
+  </si>
+  <si>
+    <t>JOEL ABRAHAM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OLIVIYA ROSE JOBY </t>
+  </si>
+  <si>
+    <t>SONA S JOSEPH</t>
+  </si>
+  <si>
+    <t>SOORYA S</t>
+  </si>
+  <si>
+    <t>2022 MBBS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -390,16 +432,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8F9FA"/>
+        <bgColor rgb="FFF8F9FA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -533,11 +593,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -596,8 +665,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -933,10 +1008,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38A89F49-A16D-44C4-953A-25A0144156A7}">
-  <dimension ref="A1:F212"/>
+  <dimension ref="A1:G212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="G100" sqref="G100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1716,7 +1791,7 @@
       <c r="B43" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="C43" s="20">
+      <c r="C43" s="11">
         <v>9207126547</v>
       </c>
       <c r="D43" s="11" t="s">
@@ -1733,7 +1808,7 @@
       <c r="B44" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="C44" s="20">
+      <c r="C44" s="11">
         <v>9961121549</v>
       </c>
       <c r="D44" s="11" t="s">
@@ -1750,7 +1825,7 @@
       <c r="B45" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C45" s="20">
+      <c r="C45" s="11">
         <v>8139878897</v>
       </c>
       <c r="D45" s="11" t="s">
@@ -1767,7 +1842,7 @@
       <c r="B46" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C46" s="20">
+      <c r="C46" s="11">
         <v>7306299613</v>
       </c>
       <c r="D46" s="11" t="s">
@@ -1784,7 +1859,7 @@
       <c r="B47" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="C47" s="20">
+      <c r="C47" s="11">
         <v>7012235025</v>
       </c>
       <c r="D47" s="11" t="s">
@@ -1801,7 +1876,7 @@
       <c r="B48" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="C48" s="20">
+      <c r="C48" s="11">
         <v>9400995544</v>
       </c>
       <c r="D48" s="11" t="s">
@@ -1818,7 +1893,7 @@
       <c r="B49" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="C49" s="20">
+      <c r="C49" s="11">
         <v>9398735897</v>
       </c>
       <c r="D49" s="11" t="s">
@@ -1835,7 +1910,7 @@
       <c r="B50" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C50" s="20">
+      <c r="C50" s="11">
         <v>8075773648</v>
       </c>
       <c r="D50" s="11" t="s">
@@ -1852,7 +1927,7 @@
       <c r="B51" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="C51" s="20">
+      <c r="C51" s="11">
         <v>8943470147</v>
       </c>
       <c r="D51" s="11" t="s">
@@ -1869,7 +1944,7 @@
       <c r="B52" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="C52" s="20">
+      <c r="C52" s="11">
         <v>8943934051</v>
       </c>
       <c r="D52" s="11" t="s">
@@ -1886,7 +1961,7 @@
       <c r="B53" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="C53" s="20">
+      <c r="C53" s="11">
         <v>7907849561</v>
       </c>
       <c r="D53" s="11" t="s">
@@ -1903,7 +1978,7 @@
       <c r="B54" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="C54" s="20">
+      <c r="C54" s="11">
         <v>9495960284</v>
       </c>
       <c r="D54" s="11" t="s">
@@ -1920,7 +1995,7 @@
       <c r="B55" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="C55" s="20">
+      <c r="C55" s="11">
         <v>9606587515</v>
       </c>
       <c r="D55" s="11" t="s">
@@ -1937,7 +2012,7 @@
       <c r="B56" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="C56" s="20">
+      <c r="C56" s="11">
         <v>9061814973</v>
       </c>
       <c r="D56" s="11" t="s">
@@ -1954,7 +2029,7 @@
       <c r="B57" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="C57" s="20">
+      <c r="C57" s="11">
         <v>9895901383</v>
       </c>
       <c r="D57" s="11" t="s">
@@ -1971,7 +2046,7 @@
       <c r="B58" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="C58" s="20">
+      <c r="C58" s="11">
         <v>8113982045</v>
       </c>
       <c r="D58" s="11" t="s">
@@ -1988,7 +2063,7 @@
       <c r="B59" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="C59" s="20">
+      <c r="C59" s="11">
         <v>8129302087</v>
       </c>
       <c r="D59" s="11" t="s">
@@ -2005,7 +2080,7 @@
       <c r="B60" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C60" s="20">
+      <c r="C60" s="11">
         <v>9778245384</v>
       </c>
       <c r="D60" s="11" t="s">
@@ -2022,7 +2097,7 @@
       <c r="B61" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="C61" s="20">
+      <c r="C61" s="11">
         <v>7907042179</v>
       </c>
       <c r="D61" s="11" t="s">
@@ -2039,7 +2114,7 @@
       <c r="B62" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="C62" s="20">
+      <c r="C62" s="11">
         <v>8943905040</v>
       </c>
       <c r="D62" s="11" t="s">
@@ -2056,7 +2131,7 @@
       <c r="B63" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="C63" s="20">
+      <c r="C63" s="11">
         <v>9072223424</v>
       </c>
       <c r="D63" s="11" t="s">
@@ -2073,7 +2148,7 @@
       <c r="B64" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="C64" s="20">
+      <c r="C64" s="11">
         <v>9744529672</v>
       </c>
       <c r="D64" s="11" t="s">
@@ -2083,249 +2158,245 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="11">
         <v>64</v>
       </c>
-      <c r="B65" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C65" s="11">
-        <v>8891063704</v>
+      <c r="B65" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C65" s="20">
+        <v>9386488713</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>23</v>
+        <v>114</v>
       </c>
       <c r="E65" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F65" s="16"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="11">
         <v>65</v>
       </c>
-      <c r="B66" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C66" s="11">
-        <v>8890106808</v>
+      <c r="B66" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C66" s="20">
+        <v>8696000776</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>23</v>
+        <v>114</v>
       </c>
       <c r="E66" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F66" s="16"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="11">
         <v>66</v>
       </c>
-      <c r="B67" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C67" s="11">
-        <v>8281614195</v>
+      <c r="B67" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C67" s="20">
+        <v>9072243770</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>23</v>
+        <v>114</v>
       </c>
       <c r="E67" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F67" s="16"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="11">
         <v>67</v>
       </c>
-      <c r="B68" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C68" s="11">
-        <v>7034115532</v>
+      <c r="B68" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="C68" s="21">
+        <v>8078700296</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>23</v>
+        <v>114</v>
       </c>
       <c r="E68" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F68" s="16"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="11">
         <v>68</v>
       </c>
-      <c r="B69" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C69" s="11">
-        <v>8714287235</v>
+      <c r="B69" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="C69" s="20">
+        <v>9072950822</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>23</v>
+        <v>114</v>
       </c>
       <c r="E69" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F69" s="16"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G69" s="16"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="11">
         <v>69</v>
       </c>
-      <c r="B70" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C70" s="11">
-        <v>8590227895</v>
+      <c r="B70" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="C70" s="20">
+        <v>7594007779</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>23</v>
+        <v>114</v>
       </c>
       <c r="E70" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F70" s="16"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G70" s="16"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="11">
         <v>70</v>
       </c>
-      <c r="B71" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="C71" s="11">
-        <v>8547970599</v>
+      <c r="B71" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="C71" s="21">
+        <v>9037822335</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>23</v>
+        <v>114</v>
       </c>
       <c r="E71" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F71" s="16"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G71" s="16"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="11">
         <v>71</v>
       </c>
-      <c r="B72" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C72" s="11">
-        <v>9567390363</v>
+      <c r="B72" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C72" s="20">
+        <v>9995528291</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>23</v>
+        <v>114</v>
       </c>
       <c r="E72" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F72" s="16"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G72" s="16"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="11">
         <v>72</v>
       </c>
-      <c r="B73" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C73" s="11">
-        <v>9074020116</v>
+      <c r="B73" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="C73" s="21">
+        <v>9188551754</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>23</v>
+        <v>114</v>
       </c>
       <c r="E73" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F73" s="16"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G73" s="16"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="11">
         <v>73</v>
       </c>
-      <c r="B74" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C74" s="11">
-        <v>8129400870</v>
+      <c r="B74" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="C74" s="20">
+        <v>6282412420</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>23</v>
+        <v>114</v>
       </c>
       <c r="E74" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F74" s="16"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G74" s="16"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="11">
         <v>74</v>
       </c>
-      <c r="B75" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C75" s="11">
-        <v>9526235729</v>
+      <c r="B75" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="C75" s="21">
+        <v>8078314089</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>23</v>
+        <v>114</v>
       </c>
       <c r="E75" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F75" s="16"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G75" s="16"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="11">
         <v>75</v>
       </c>
-      <c r="B76" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C76" s="11">
-        <v>9072478888</v>
+      <c r="B76" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="C76" s="20">
+        <v>7994183178</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>23</v>
+        <v>114</v>
       </c>
       <c r="E76" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F76" s="16"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G76" s="16"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="11">
         <v>76</v>
       </c>
-      <c r="B77" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C77" s="11">
-        <v>6238970603</v>
+      <c r="B77" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C77" s="20">
+        <v>9995213074</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>23</v>
+        <v>114</v>
       </c>
       <c r="E77" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F77" s="16"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G77" s="16"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="11">
         <v>77</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C78" s="11">
-        <v>7306247554</v>
+        <v>8891063704</v>
       </c>
       <c r="D78" s="11" t="s">
         <v>23</v>
@@ -2334,16 +2405,17 @@
         <v>4</v>
       </c>
       <c r="F78" s="16"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G78" s="16"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="11">
         <v>78</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C79" s="11">
-        <v>9495689382</v>
+        <v>8890106808</v>
       </c>
       <c r="D79" s="11" t="s">
         <v>23</v>
@@ -2352,16 +2424,17 @@
         <v>4</v>
       </c>
       <c r="F79" s="16"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G79" s="16"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="11">
         <v>79</v>
       </c>
       <c r="B80" s="19" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C80" s="11">
-        <v>7593868503</v>
+        <v>8281614195</v>
       </c>
       <c r="D80" s="11" t="s">
         <v>23</v>
@@ -2370,16 +2443,17 @@
         <v>4</v>
       </c>
       <c r="F80" s="16"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G80" s="16"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="11">
         <v>80</v>
       </c>
       <c r="B81" s="19" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C81" s="11">
-        <v>6238597362</v>
+        <v>7034115532</v>
       </c>
       <c r="D81" s="11" t="s">
         <v>23</v>
@@ -2388,16 +2462,17 @@
         <v>4</v>
       </c>
       <c r="F81" s="16"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G81" s="16"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="11">
         <v>81</v>
       </c>
       <c r="B82" s="19" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C82" s="11">
-        <v>8714443175</v>
+        <v>8714287235</v>
       </c>
       <c r="D82" s="11" t="s">
         <v>23</v>
@@ -2406,16 +2481,17 @@
         <v>4</v>
       </c>
       <c r="F82" s="16"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G82" s="16"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="11">
         <v>82</v>
       </c>
       <c r="B83" s="19" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="C83" s="11">
-        <v>9446041692</v>
+        <v>8590227895</v>
       </c>
       <c r="D83" s="11" t="s">
         <v>23</v>
@@ -2424,16 +2500,17 @@
         <v>4</v>
       </c>
       <c r="F83" s="16"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G83" s="16"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="11">
         <v>83</v>
       </c>
       <c r="B84" s="19" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="C84" s="11">
-        <v>9447456588</v>
+        <v>8547970599</v>
       </c>
       <c r="D84" s="11" t="s">
         <v>23</v>
@@ -2442,16 +2519,17 @@
         <v>4</v>
       </c>
       <c r="F84" s="16"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G84" s="16"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="11">
         <v>84</v>
       </c>
       <c r="B85" s="19" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="C85" s="11">
-        <v>8590997980</v>
+        <v>9567390363</v>
       </c>
       <c r="D85" s="11" t="s">
         <v>23</v>
@@ -2461,15 +2539,15 @@
       </c>
       <c r="F85" s="16"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="11">
         <v>85</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C86" s="11">
-        <v>8078521701</v>
+        <v>9074020116</v>
       </c>
       <c r="D86" s="11" t="s">
         <v>23</v>
@@ -2479,15 +2557,15 @@
       </c>
       <c r="F86" s="16"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="11">
         <v>86</v>
       </c>
       <c r="B87" s="19" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C87" s="11">
-        <v>9746143411</v>
+        <v>8129400870</v>
       </c>
       <c r="D87" s="11" t="s">
         <v>23</v>
@@ -2497,15 +2575,15 @@
       </c>
       <c r="F87" s="16"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="11">
         <v>87</v>
       </c>
       <c r="B88" s="19" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C88" s="11">
-        <v>9567074475</v>
+        <v>9526235729</v>
       </c>
       <c r="D88" s="11" t="s">
         <v>23</v>
@@ -2515,15 +2593,15 @@
       </c>
       <c r="F88" s="16"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="11">
         <v>88</v>
       </c>
       <c r="B89" s="19" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="C89" s="11">
-        <v>7569444700</v>
+        <v>9072478888</v>
       </c>
       <c r="D89" s="11" t="s">
         <v>23</v>
@@ -2533,15 +2611,15 @@
       </c>
       <c r="F89" s="16"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="11">
         <v>89</v>
       </c>
       <c r="B90" s="19" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C90" s="11">
-        <v>9497550760</v>
+        <v>6238970603</v>
       </c>
       <c r="D90" s="11" t="s">
         <v>23</v>
@@ -2551,15 +2629,15 @@
       </c>
       <c r="F90" s="16"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="11">
         <v>90</v>
       </c>
       <c r="B91" s="19" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="C91" s="11">
-        <v>9037358727</v>
+        <v>7306247554</v>
       </c>
       <c r="D91" s="11" t="s">
         <v>23</v>
@@ -2569,126 +2647,256 @@
       </c>
       <c r="F91" s="16"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A92" s="11">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A92" s="15">
         <v>91</v>
       </c>
-      <c r="B92" s="19" t="s">
+      <c r="B92" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C92" s="15">
+        <v>9495689382</v>
+      </c>
+      <c r="D92" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E92" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F92" s="16"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A93" s="15">
+        <v>92</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C93" s="11">
+        <v>7593868503</v>
+      </c>
+      <c r="D93" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E93" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F93" s="16"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A94" s="15">
+        <v>93</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C94" s="11">
+        <v>6238597362</v>
+      </c>
+      <c r="D94" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E94" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F94" s="16"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A95" s="15">
+        <v>94</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C95" s="11">
+        <v>8714443175</v>
+      </c>
+      <c r="D95" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E95" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F95" s="16"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A96" s="15">
+        <v>95</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C96" s="11">
+        <v>9446041692</v>
+      </c>
+      <c r="D96" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E96" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F96" s="16"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" s="15">
+        <v>96</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C97" s="11">
+        <v>9447456588</v>
+      </c>
+      <c r="D97" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E97" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F97" s="16"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" s="15">
+        <v>97</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C98" s="11">
+        <v>8590997980</v>
+      </c>
+      <c r="D98" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E98" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F98" s="16"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" s="15">
+        <v>98</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C99" s="11">
+        <v>8078521701</v>
+      </c>
+      <c r="D99" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E99" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F99" s="16"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" s="15">
+        <v>99</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C100" s="11">
+        <v>9746143411</v>
+      </c>
+      <c r="D100" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E100" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F100" s="16"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" s="15">
+        <v>100</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C101" s="11">
+        <v>9567074475</v>
+      </c>
+      <c r="D101" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E101" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F101" s="16"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102" s="15">
+        <v>101</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C102" s="11">
+        <v>7569444700</v>
+      </c>
+      <c r="D102" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E102" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F102" s="16"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103" s="15">
+        <v>102</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C103" s="11">
+        <v>9497550760</v>
+      </c>
+      <c r="D103" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E103" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F103" s="16"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104" s="15">
+        <v>103</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C104" s="11">
+        <v>9037358727</v>
+      </c>
+      <c r="D104" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E104" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F104" s="16"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105" s="11">
+        <v>104</v>
+      </c>
+      <c r="B105" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C92" s="11">
+      <c r="C105" s="11">
         <v>8929192979</v>
       </c>
-      <c r="D92" s="11" t="s">
+      <c r="D105" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E92" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F92" s="16"/>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A93" s="16"/>
-      <c r="B93" s="16"/>
-      <c r="C93" s="16"/>
-      <c r="D93" s="16"/>
-      <c r="E93" s="16"/>
-      <c r="F93" s="16"/>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A94" s="16"/>
-      <c r="B94" s="16"/>
-      <c r="C94" s="16"/>
-      <c r="D94" s="16"/>
-      <c r="E94" s="16"/>
-      <c r="F94" s="16"/>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A95" s="16"/>
-      <c r="B95" s="16"/>
-      <c r="C95" s="16"/>
-      <c r="D95" s="16"/>
-      <c r="E95" s="16"/>
-      <c r="F95" s="16"/>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A96" s="16"/>
-      <c r="B96" s="16"/>
-      <c r="C96" s="16"/>
-      <c r="D96" s="16"/>
-      <c r="E96" s="16"/>
-      <c r="F96" s="16"/>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A97" s="16"/>
-      <c r="B97" s="16"/>
-      <c r="C97" s="16"/>
-      <c r="D97" s="16"/>
-      <c r="E97" s="16"/>
-      <c r="F97" s="16"/>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A98" s="16"/>
-      <c r="B98" s="16"/>
-      <c r="C98" s="16"/>
-      <c r="D98" s="16"/>
-      <c r="E98" s="16"/>
-      <c r="F98" s="16"/>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A99" s="16"/>
-      <c r="B99" s="16"/>
-      <c r="C99" s="16"/>
-      <c r="D99" s="16"/>
-      <c r="E99" s="16"/>
-      <c r="F99" s="16"/>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A100" s="16"/>
-      <c r="B100" s="16"/>
-      <c r="C100" s="16"/>
-      <c r="D100" s="16"/>
-      <c r="E100" s="16"/>
-      <c r="F100" s="16"/>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A101" s="16"/>
-      <c r="B101" s="16"/>
-      <c r="C101" s="16"/>
-      <c r="D101" s="16"/>
-      <c r="E101" s="16"/>
-      <c r="F101" s="16"/>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A102" s="16"/>
-      <c r="B102" s="16"/>
-      <c r="C102" s="16"/>
-      <c r="D102" s="16"/>
-      <c r="E102" s="16"/>
-      <c r="F102" s="16"/>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A103" s="16"/>
-      <c r="B103" s="16"/>
-      <c r="C103" s="16"/>
-      <c r="D103" s="16"/>
-      <c r="E103" s="16"/>
-      <c r="F103" s="16"/>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A104" s="16"/>
-      <c r="B104" s="16"/>
-      <c r="C104" s="16"/>
-      <c r="D104" s="16"/>
-      <c r="E104" s="16"/>
-      <c r="F104" s="16"/>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A105" s="16"/>
-      <c r="B105" s="16"/>
-      <c r="C105" s="16"/>
-      <c r="D105" s="16"/>
-      <c r="E105" s="16"/>
+      <c r="E105" s="11" t="s">
+        <v>4</v>
+      </c>
       <c r="F105" s="16"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
